--- a/BilanConcours/Ecoles.xlsx
+++ b/BilanConcours/Ecoles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\BilanConcours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF42227-A0C1-44EC-9D33-E087D6D7E66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE91AC5F-E77A-4467-9211-830461A5C52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="45">
   <si>
     <t>Ecole</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>Langue vivante</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Epreuves sportives</t>
   </si>
 </sst>
 </file>
@@ -656,10 +668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528112A4-E218-487D-A5F5-2C549F5C1B3F}">
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4849,6 +4861,126 @@
         <v>20</v>
       </c>
     </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" t="s">
+        <v>27</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" t="s">
+        <v>30</v>
+      </c>
+      <c r="E210" t="s">
+        <v>41</v>
+      </c>
+      <c r="F210">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>27</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>30</v>
+      </c>
+      <c r="E211" t="s">
+        <v>42</v>
+      </c>
+      <c r="F211">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" t="s">
+        <v>30</v>
+      </c>
+      <c r="E212" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" t="s">
+        <v>27</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" t="s">
+        <v>30</v>
+      </c>
+      <c r="E213" t="s">
+        <v>33</v>
+      </c>
+      <c r="F213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" t="s">
+        <v>27</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" t="s">
+        <v>30</v>
+      </c>
+      <c r="E214" t="s">
+        <v>43</v>
+      </c>
+      <c r="F214">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>30</v>
+      </c>
+      <c r="E215" t="s">
+        <v>44</v>
+      </c>
+      <c r="F215">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BilanConcours/Ecoles.xlsx
+++ b/BilanConcours/Ecoles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\BilanConcours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE91AC5F-E77A-4467-9211-830461A5C52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DE74C7-26F6-4803-8AF6-DEAA37EBA13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="290" windowWidth="19200" windowHeight="9790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ecoles" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="66">
   <si>
     <t>Ecole</t>
   </si>
@@ -168,6 +168,69 @@
   </si>
   <si>
     <t>Epreuves sportives</t>
+  </si>
+  <si>
+    <t>CCMP</t>
+  </si>
+  <si>
+    <t>Ponts ParisTech</t>
+  </si>
+  <si>
+    <t>ISAE-SUPAERO</t>
+  </si>
+  <si>
+    <t>ENSTA Paris</t>
+  </si>
+  <si>
+    <t>TELECOM Paris</t>
+  </si>
+  <si>
+    <t>Mines Paris</t>
+  </si>
+  <si>
+    <t>Mines St Etienne</t>
+  </si>
+  <si>
+    <t>Mines Nancy</t>
+  </si>
+  <si>
+    <t>IMT Atlantique</t>
+  </si>
+  <si>
+    <t>ENSAE Paris</t>
+  </si>
+  <si>
+    <t>Chimie ParisTech-PSL</t>
+  </si>
+  <si>
+    <t>Places</t>
+  </si>
+  <si>
+    <t>ENSTA Paris - Apprentissage</t>
+  </si>
+  <si>
+    <t>Physique 1</t>
+  </si>
+  <si>
+    <t>Physique 2</t>
+  </si>
+  <si>
+    <t>Chimie</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>Physique</t>
+  </si>
+  <si>
+    <t>Epreuve mixte</t>
+  </si>
+  <si>
+    <t>Anglais</t>
   </si>
 </sst>
 </file>
@@ -485,18 +548,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -506,8 +571,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -518,7 +586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -529,7 +597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -540,7 +608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -551,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -562,7 +630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -573,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -584,7 +652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -595,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -606,7 +674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -617,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -628,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -639,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -650,7 +718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -659,6 +727,160 @@
       </c>
       <c r="C15" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -668,17 +890,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528112A4-E218-487D-A5F5-2C549F5C1B3F}">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="F216" sqref="F216"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.26953125" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -4981,6 +5206,3306 @@
         <v>12</v>
       </c>
     </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>45</v>
+      </c>
+      <c r="B216" t="s">
+        <v>46</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>45</v>
+      </c>
+      <c r="B217" t="s">
+        <v>46</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" t="s">
+        <v>11</v>
+      </c>
+      <c r="F217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>45</v>
+      </c>
+      <c r="B218" t="s">
+        <v>46</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" t="s">
+        <v>58</v>
+      </c>
+      <c r="F218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>45</v>
+      </c>
+      <c r="B219" t="s">
+        <v>46</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219" t="s">
+        <v>59</v>
+      </c>
+      <c r="F219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>45</v>
+      </c>
+      <c r="B220" t="s">
+        <v>46</v>
+      </c>
+      <c r="C220" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" t="s">
+        <v>60</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>45</v>
+      </c>
+      <c r="B221" t="s">
+        <v>46</v>
+      </c>
+      <c r="C221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" t="s">
+        <v>61</v>
+      </c>
+      <c r="F221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>45</v>
+      </c>
+      <c r="B222" t="s">
+        <v>46</v>
+      </c>
+      <c r="C222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" t="s">
+        <v>16</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>45</v>
+      </c>
+      <c r="B223" t="s">
+        <v>46</v>
+      </c>
+      <c r="C223" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" t="s">
+        <v>62</v>
+      </c>
+      <c r="F223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>45</v>
+      </c>
+      <c r="B224" t="s">
+        <v>46</v>
+      </c>
+      <c r="C224" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" t="s">
+        <v>40</v>
+      </c>
+      <c r="F224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>45</v>
+      </c>
+      <c r="B225" t="s">
+        <v>46</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" t="s">
+        <v>30</v>
+      </c>
+      <c r="E225" t="s">
+        <v>38</v>
+      </c>
+      <c r="F225">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>45</v>
+      </c>
+      <c r="B226" t="s">
+        <v>46</v>
+      </c>
+      <c r="C226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" t="s">
+        <v>30</v>
+      </c>
+      <c r="E226" t="s">
+        <v>63</v>
+      </c>
+      <c r="F226">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>45</v>
+      </c>
+      <c r="B227" t="s">
+        <v>46</v>
+      </c>
+      <c r="C227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" t="s">
+        <v>30</v>
+      </c>
+      <c r="E227" t="s">
+        <v>64</v>
+      </c>
+      <c r="F227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>45</v>
+      </c>
+      <c r="B228" t="s">
+        <v>46</v>
+      </c>
+      <c r="C228" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" t="s">
+        <v>30</v>
+      </c>
+      <c r="E228" t="s">
+        <v>33</v>
+      </c>
+      <c r="F228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>45</v>
+      </c>
+      <c r="B229" t="s">
+        <v>46</v>
+      </c>
+      <c r="C229" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>30</v>
+      </c>
+      <c r="E229" t="s">
+        <v>62</v>
+      </c>
+      <c r="F229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>45</v>
+      </c>
+      <c r="B230" t="s">
+        <v>46</v>
+      </c>
+      <c r="C230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" t="s">
+        <v>30</v>
+      </c>
+      <c r="E230" t="s">
+        <v>65</v>
+      </c>
+      <c r="F230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>45</v>
+      </c>
+      <c r="B231" t="s">
+        <v>47</v>
+      </c>
+      <c r="C231" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" t="s">
+        <v>9</v>
+      </c>
+      <c r="E231" t="s">
+        <v>10</v>
+      </c>
+      <c r="F231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>45</v>
+      </c>
+      <c r="B232" t="s">
+        <v>47</v>
+      </c>
+      <c r="C232" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232" t="s">
+        <v>11</v>
+      </c>
+      <c r="F232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>45</v>
+      </c>
+      <c r="B233" t="s">
+        <v>47</v>
+      </c>
+      <c r="C233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" t="s">
+        <v>9</v>
+      </c>
+      <c r="E233" t="s">
+        <v>58</v>
+      </c>
+      <c r="F233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>45</v>
+      </c>
+      <c r="B234" t="s">
+        <v>47</v>
+      </c>
+      <c r="C234" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" t="s">
+        <v>59</v>
+      </c>
+      <c r="F234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>45</v>
+      </c>
+      <c r="B235" t="s">
+        <v>47</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235" t="s">
+        <v>60</v>
+      </c>
+      <c r="F235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>45</v>
+      </c>
+      <c r="B236" t="s">
+        <v>47</v>
+      </c>
+      <c r="C236" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" t="s">
+        <v>9</v>
+      </c>
+      <c r="E236" t="s">
+        <v>61</v>
+      </c>
+      <c r="F236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>45</v>
+      </c>
+      <c r="B237" t="s">
+        <v>47</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" t="s">
+        <v>9</v>
+      </c>
+      <c r="E237" t="s">
+        <v>16</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>45</v>
+      </c>
+      <c r="B238" t="s">
+        <v>47</v>
+      </c>
+      <c r="C238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" t="s">
+        <v>9</v>
+      </c>
+      <c r="E238" t="s">
+        <v>62</v>
+      </c>
+      <c r="F238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>45</v>
+      </c>
+      <c r="B239" t="s">
+        <v>47</v>
+      </c>
+      <c r="C239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" t="s">
+        <v>40</v>
+      </c>
+      <c r="F239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>45</v>
+      </c>
+      <c r="B240" t="s">
+        <v>47</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" t="s">
+        <v>30</v>
+      </c>
+      <c r="E240" t="s">
+        <v>38</v>
+      </c>
+      <c r="F240">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>45</v>
+      </c>
+      <c r="B241" t="s">
+        <v>47</v>
+      </c>
+      <c r="C241" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" t="s">
+        <v>30</v>
+      </c>
+      <c r="E241" t="s">
+        <v>63</v>
+      </c>
+      <c r="F241">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>45</v>
+      </c>
+      <c r="B242" t="s">
+        <v>47</v>
+      </c>
+      <c r="C242" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" t="s">
+        <v>30</v>
+      </c>
+      <c r="E242" t="s">
+        <v>64</v>
+      </c>
+      <c r="F242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>45</v>
+      </c>
+      <c r="B243" t="s">
+        <v>47</v>
+      </c>
+      <c r="C243" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" t="s">
+        <v>30</v>
+      </c>
+      <c r="E243" t="s">
+        <v>33</v>
+      </c>
+      <c r="F243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>45</v>
+      </c>
+      <c r="B244" t="s">
+        <v>47</v>
+      </c>
+      <c r="C244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" t="s">
+        <v>30</v>
+      </c>
+      <c r="E244" t="s">
+        <v>62</v>
+      </c>
+      <c r="F244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>45</v>
+      </c>
+      <c r="B245" t="s">
+        <v>47</v>
+      </c>
+      <c r="C245" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" t="s">
+        <v>30</v>
+      </c>
+      <c r="E245" t="s">
+        <v>65</v>
+      </c>
+      <c r="F245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>45</v>
+      </c>
+      <c r="B246" t="s">
+        <v>48</v>
+      </c>
+      <c r="C246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" t="s">
+        <v>9</v>
+      </c>
+      <c r="E246" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>45</v>
+      </c>
+      <c r="B247" t="s">
+        <v>48</v>
+      </c>
+      <c r="C247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247" t="s">
+        <v>11</v>
+      </c>
+      <c r="F247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>45</v>
+      </c>
+      <c r="B248" t="s">
+        <v>48</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248" t="s">
+        <v>58</v>
+      </c>
+      <c r="F248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>45</v>
+      </c>
+      <c r="B249" t="s">
+        <v>48</v>
+      </c>
+      <c r="C249" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" t="s">
+        <v>59</v>
+      </c>
+      <c r="F249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>45</v>
+      </c>
+      <c r="B250" t="s">
+        <v>48</v>
+      </c>
+      <c r="C250" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" t="s">
+        <v>60</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>45</v>
+      </c>
+      <c r="B251" t="s">
+        <v>48</v>
+      </c>
+      <c r="C251" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" t="s">
+        <v>61</v>
+      </c>
+      <c r="F251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>45</v>
+      </c>
+      <c r="B252" t="s">
+        <v>48</v>
+      </c>
+      <c r="C252" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" t="s">
+        <v>9</v>
+      </c>
+      <c r="E252" t="s">
+        <v>16</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>45</v>
+      </c>
+      <c r="B253" t="s">
+        <v>48</v>
+      </c>
+      <c r="C253" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" t="s">
+        <v>9</v>
+      </c>
+      <c r="E253" t="s">
+        <v>62</v>
+      </c>
+      <c r="F253">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>45</v>
+      </c>
+      <c r="B254" t="s">
+        <v>48</v>
+      </c>
+      <c r="C254" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" t="s">
+        <v>9</v>
+      </c>
+      <c r="E254" t="s">
+        <v>40</v>
+      </c>
+      <c r="F254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>45</v>
+      </c>
+      <c r="B255" t="s">
+        <v>48</v>
+      </c>
+      <c r="C255" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" t="s">
+        <v>30</v>
+      </c>
+      <c r="E255" t="s">
+        <v>38</v>
+      </c>
+      <c r="F255">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>45</v>
+      </c>
+      <c r="B256" t="s">
+        <v>48</v>
+      </c>
+      <c r="C256" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" t="s">
+        <v>30</v>
+      </c>
+      <c r="E256" t="s">
+        <v>63</v>
+      </c>
+      <c r="F256">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>45</v>
+      </c>
+      <c r="B257" t="s">
+        <v>48</v>
+      </c>
+      <c r="C257" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" t="s">
+        <v>30</v>
+      </c>
+      <c r="E257" t="s">
+        <v>64</v>
+      </c>
+      <c r="F257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>45</v>
+      </c>
+      <c r="B258" t="s">
+        <v>48</v>
+      </c>
+      <c r="C258" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" t="s">
+        <v>30</v>
+      </c>
+      <c r="E258" t="s">
+        <v>33</v>
+      </c>
+      <c r="F258">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>45</v>
+      </c>
+      <c r="B259" t="s">
+        <v>48</v>
+      </c>
+      <c r="C259" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" t="s">
+        <v>30</v>
+      </c>
+      <c r="E259" t="s">
+        <v>62</v>
+      </c>
+      <c r="F259">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>45</v>
+      </c>
+      <c r="B260" t="s">
+        <v>48</v>
+      </c>
+      <c r="C260" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" t="s">
+        <v>30</v>
+      </c>
+      <c r="E260" t="s">
+        <v>65</v>
+      </c>
+      <c r="F260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>45</v>
+      </c>
+      <c r="B261" t="s">
+        <v>57</v>
+      </c>
+      <c r="C261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>45</v>
+      </c>
+      <c r="B262" t="s">
+        <v>57</v>
+      </c>
+      <c r="C262" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" t="s">
+        <v>9</v>
+      </c>
+      <c r="E262" t="s">
+        <v>11</v>
+      </c>
+      <c r="F262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>45</v>
+      </c>
+      <c r="B263" t="s">
+        <v>57</v>
+      </c>
+      <c r="C263" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263" t="s">
+        <v>58</v>
+      </c>
+      <c r="F263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>45</v>
+      </c>
+      <c r="B264" t="s">
+        <v>57</v>
+      </c>
+      <c r="C264" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" t="s">
+        <v>9</v>
+      </c>
+      <c r="E264" t="s">
+        <v>59</v>
+      </c>
+      <c r="F264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>45</v>
+      </c>
+      <c r="B265" t="s">
+        <v>57</v>
+      </c>
+      <c r="C265" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" t="s">
+        <v>9</v>
+      </c>
+      <c r="E265" t="s">
+        <v>60</v>
+      </c>
+      <c r="F265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>45</v>
+      </c>
+      <c r="B266" t="s">
+        <v>57</v>
+      </c>
+      <c r="C266" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" t="s">
+        <v>9</v>
+      </c>
+      <c r="E266" t="s">
+        <v>61</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>45</v>
+      </c>
+      <c r="B267" t="s">
+        <v>57</v>
+      </c>
+      <c r="C267" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" t="s">
+        <v>9</v>
+      </c>
+      <c r="E267" t="s">
+        <v>16</v>
+      </c>
+      <c r="F267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>45</v>
+      </c>
+      <c r="B268" t="s">
+        <v>57</v>
+      </c>
+      <c r="C268" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" t="s">
+        <v>62</v>
+      </c>
+      <c r="F268">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>45</v>
+      </c>
+      <c r="B269" t="s">
+        <v>57</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" t="s">
+        <v>40</v>
+      </c>
+      <c r="F269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>45</v>
+      </c>
+      <c r="B270" t="s">
+        <v>57</v>
+      </c>
+      <c r="C270" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" t="s">
+        <v>30</v>
+      </c>
+      <c r="E270" t="s">
+        <v>38</v>
+      </c>
+      <c r="F270">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>45</v>
+      </c>
+      <c r="B271" t="s">
+        <v>57</v>
+      </c>
+      <c r="C271" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" t="s">
+        <v>30</v>
+      </c>
+      <c r="E271" t="s">
+        <v>63</v>
+      </c>
+      <c r="F271">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>45</v>
+      </c>
+      <c r="B272" t="s">
+        <v>57</v>
+      </c>
+      <c r="C272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" t="s">
+        <v>30</v>
+      </c>
+      <c r="E272" t="s">
+        <v>64</v>
+      </c>
+      <c r="F272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>45</v>
+      </c>
+      <c r="B273" t="s">
+        <v>57</v>
+      </c>
+      <c r="C273" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" t="s">
+        <v>30</v>
+      </c>
+      <c r="E273" t="s">
+        <v>33</v>
+      </c>
+      <c r="F273">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>45</v>
+      </c>
+      <c r="B274" t="s">
+        <v>57</v>
+      </c>
+      <c r="C274" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" t="s">
+        <v>30</v>
+      </c>
+      <c r="E274" t="s">
+        <v>62</v>
+      </c>
+      <c r="F274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>45</v>
+      </c>
+      <c r="B275" t="s">
+        <v>57</v>
+      </c>
+      <c r="C275" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" t="s">
+        <v>30</v>
+      </c>
+      <c r="E275" t="s">
+        <v>65</v>
+      </c>
+      <c r="F275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>45</v>
+      </c>
+      <c r="B276" t="s">
+        <v>49</v>
+      </c>
+      <c r="C276" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" t="s">
+        <v>9</v>
+      </c>
+      <c r="E276" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>45</v>
+      </c>
+      <c r="B277" t="s">
+        <v>49</v>
+      </c>
+      <c r="C277" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" t="s">
+        <v>9</v>
+      </c>
+      <c r="E277" t="s">
+        <v>11</v>
+      </c>
+      <c r="F277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>45</v>
+      </c>
+      <c r="B278" t="s">
+        <v>49</v>
+      </c>
+      <c r="C278" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" t="s">
+        <v>9</v>
+      </c>
+      <c r="E278" t="s">
+        <v>58</v>
+      </c>
+      <c r="F278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>45</v>
+      </c>
+      <c r="B279" t="s">
+        <v>49</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" t="s">
+        <v>9</v>
+      </c>
+      <c r="E279" t="s">
+        <v>59</v>
+      </c>
+      <c r="F279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>45</v>
+      </c>
+      <c r="B280" t="s">
+        <v>49</v>
+      </c>
+      <c r="C280" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" t="s">
+        <v>9</v>
+      </c>
+      <c r="E280" t="s">
+        <v>60</v>
+      </c>
+      <c r="F280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>45</v>
+      </c>
+      <c r="B281" t="s">
+        <v>49</v>
+      </c>
+      <c r="C281" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" t="s">
+        <v>9</v>
+      </c>
+      <c r="E281" t="s">
+        <v>61</v>
+      </c>
+      <c r="F281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>45</v>
+      </c>
+      <c r="B282" t="s">
+        <v>49</v>
+      </c>
+      <c r="C282" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" t="s">
+        <v>9</v>
+      </c>
+      <c r="E282" t="s">
+        <v>16</v>
+      </c>
+      <c r="F282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>45</v>
+      </c>
+      <c r="B283" t="s">
+        <v>49</v>
+      </c>
+      <c r="C283" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" t="s">
+        <v>9</v>
+      </c>
+      <c r="E283" t="s">
+        <v>62</v>
+      </c>
+      <c r="F283">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>45</v>
+      </c>
+      <c r="B284" t="s">
+        <v>49</v>
+      </c>
+      <c r="C284" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" t="s">
+        <v>9</v>
+      </c>
+      <c r="E284" t="s">
+        <v>40</v>
+      </c>
+      <c r="F284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>45</v>
+      </c>
+      <c r="B285" t="s">
+        <v>49</v>
+      </c>
+      <c r="C285" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" t="s">
+        <v>30</v>
+      </c>
+      <c r="E285" t="s">
+        <v>38</v>
+      </c>
+      <c r="F285">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>45</v>
+      </c>
+      <c r="B286" t="s">
+        <v>49</v>
+      </c>
+      <c r="C286" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" t="s">
+        <v>30</v>
+      </c>
+      <c r="E286" t="s">
+        <v>63</v>
+      </c>
+      <c r="F286">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>45</v>
+      </c>
+      <c r="B287" t="s">
+        <v>49</v>
+      </c>
+      <c r="C287" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" t="s">
+        <v>30</v>
+      </c>
+      <c r="E287" t="s">
+        <v>64</v>
+      </c>
+      <c r="F287">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>45</v>
+      </c>
+      <c r="B288" t="s">
+        <v>49</v>
+      </c>
+      <c r="C288" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" t="s">
+        <v>30</v>
+      </c>
+      <c r="E288" t="s">
+        <v>33</v>
+      </c>
+      <c r="F288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>45</v>
+      </c>
+      <c r="B289" t="s">
+        <v>49</v>
+      </c>
+      <c r="C289" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" t="s">
+        <v>30</v>
+      </c>
+      <c r="E289" t="s">
+        <v>62</v>
+      </c>
+      <c r="F289">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>45</v>
+      </c>
+      <c r="B290" t="s">
+        <v>49</v>
+      </c>
+      <c r="C290" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" t="s">
+        <v>30</v>
+      </c>
+      <c r="E290" t="s">
+        <v>65</v>
+      </c>
+      <c r="F290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>45</v>
+      </c>
+      <c r="B291" t="s">
+        <v>50</v>
+      </c>
+      <c r="C291" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" t="s">
+        <v>9</v>
+      </c>
+      <c r="E291" t="s">
+        <v>10</v>
+      </c>
+      <c r="F291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>45</v>
+      </c>
+      <c r="B292" t="s">
+        <v>50</v>
+      </c>
+      <c r="C292" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292" t="s">
+        <v>11</v>
+      </c>
+      <c r="F292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>45</v>
+      </c>
+      <c r="B293" t="s">
+        <v>50</v>
+      </c>
+      <c r="C293" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" t="s">
+        <v>58</v>
+      </c>
+      <c r="F293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>45</v>
+      </c>
+      <c r="B294" t="s">
+        <v>50</v>
+      </c>
+      <c r="C294" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" t="s">
+        <v>9</v>
+      </c>
+      <c r="E294" t="s">
+        <v>59</v>
+      </c>
+      <c r="F294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>45</v>
+      </c>
+      <c r="B295" t="s">
+        <v>50</v>
+      </c>
+      <c r="C295" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295" t="s">
+        <v>60</v>
+      </c>
+      <c r="F295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>45</v>
+      </c>
+      <c r="B296" t="s">
+        <v>50</v>
+      </c>
+      <c r="C296" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" t="s">
+        <v>9</v>
+      </c>
+      <c r="E296" t="s">
+        <v>61</v>
+      </c>
+      <c r="F296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>45</v>
+      </c>
+      <c r="B297" t="s">
+        <v>50</v>
+      </c>
+      <c r="C297" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" t="s">
+        <v>9</v>
+      </c>
+      <c r="E297" t="s">
+        <v>16</v>
+      </c>
+      <c r="F297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>45</v>
+      </c>
+      <c r="B298" t="s">
+        <v>50</v>
+      </c>
+      <c r="C298" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" t="s">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>62</v>
+      </c>
+      <c r="F298">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>45</v>
+      </c>
+      <c r="B299" t="s">
+        <v>50</v>
+      </c>
+      <c r="C299" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299" t="s">
+        <v>40</v>
+      </c>
+      <c r="F299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>45</v>
+      </c>
+      <c r="B300" t="s">
+        <v>50</v>
+      </c>
+      <c r="C300" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" t="s">
+        <v>30</v>
+      </c>
+      <c r="E300" t="s">
+        <v>38</v>
+      </c>
+      <c r="F300">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>45</v>
+      </c>
+      <c r="B301" t="s">
+        <v>50</v>
+      </c>
+      <c r="C301" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" t="s">
+        <v>30</v>
+      </c>
+      <c r="E301" t="s">
+        <v>63</v>
+      </c>
+      <c r="F301">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>45</v>
+      </c>
+      <c r="B302" t="s">
+        <v>50</v>
+      </c>
+      <c r="C302" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" t="s">
+        <v>30</v>
+      </c>
+      <c r="E302" t="s">
+        <v>64</v>
+      </c>
+      <c r="F302">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>45</v>
+      </c>
+      <c r="B303" t="s">
+        <v>50</v>
+      </c>
+      <c r="C303" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" t="s">
+        <v>30</v>
+      </c>
+      <c r="E303" t="s">
+        <v>33</v>
+      </c>
+      <c r="F303">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>45</v>
+      </c>
+      <c r="B304" t="s">
+        <v>50</v>
+      </c>
+      <c r="C304" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" t="s">
+        <v>30</v>
+      </c>
+      <c r="E304" t="s">
+        <v>62</v>
+      </c>
+      <c r="F304">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>45</v>
+      </c>
+      <c r="B305" t="s">
+        <v>50</v>
+      </c>
+      <c r="C305" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" t="s">
+        <v>30</v>
+      </c>
+      <c r="E305" t="s">
+        <v>65</v>
+      </c>
+      <c r="F305">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>45</v>
+      </c>
+      <c r="B306" t="s">
+        <v>51</v>
+      </c>
+      <c r="C306" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" t="s">
+        <v>9</v>
+      </c>
+      <c r="E306" t="s">
+        <v>10</v>
+      </c>
+      <c r="F306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>45</v>
+      </c>
+      <c r="B307" t="s">
+        <v>51</v>
+      </c>
+      <c r="C307" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" t="s">
+        <v>9</v>
+      </c>
+      <c r="E307" t="s">
+        <v>11</v>
+      </c>
+      <c r="F307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>45</v>
+      </c>
+      <c r="B308" t="s">
+        <v>51</v>
+      </c>
+      <c r="C308" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" t="s">
+        <v>9</v>
+      </c>
+      <c r="E308" t="s">
+        <v>58</v>
+      </c>
+      <c r="F308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>45</v>
+      </c>
+      <c r="B309" t="s">
+        <v>51</v>
+      </c>
+      <c r="C309" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" t="s">
+        <v>9</v>
+      </c>
+      <c r="E309" t="s">
+        <v>59</v>
+      </c>
+      <c r="F309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>45</v>
+      </c>
+      <c r="B310" t="s">
+        <v>51</v>
+      </c>
+      <c r="C310" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" t="s">
+        <v>9</v>
+      </c>
+      <c r="E310" t="s">
+        <v>60</v>
+      </c>
+      <c r="F310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>45</v>
+      </c>
+      <c r="B311" t="s">
+        <v>51</v>
+      </c>
+      <c r="C311" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" t="s">
+        <v>9</v>
+      </c>
+      <c r="E311" t="s">
+        <v>61</v>
+      </c>
+      <c r="F311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>45</v>
+      </c>
+      <c r="B312" t="s">
+        <v>51</v>
+      </c>
+      <c r="C312" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" t="s">
+        <v>9</v>
+      </c>
+      <c r="E312" t="s">
+        <v>16</v>
+      </c>
+      <c r="F312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>45</v>
+      </c>
+      <c r="B313" t="s">
+        <v>51</v>
+      </c>
+      <c r="C313" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" t="s">
+        <v>9</v>
+      </c>
+      <c r="E313" t="s">
+        <v>62</v>
+      </c>
+      <c r="F313">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>45</v>
+      </c>
+      <c r="B314" t="s">
+        <v>51</v>
+      </c>
+      <c r="C314" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" t="s">
+        <v>9</v>
+      </c>
+      <c r="E314" t="s">
+        <v>40</v>
+      </c>
+      <c r="F314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>45</v>
+      </c>
+      <c r="B315" t="s">
+        <v>51</v>
+      </c>
+      <c r="C315" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" t="s">
+        <v>30</v>
+      </c>
+      <c r="E315" t="s">
+        <v>38</v>
+      </c>
+      <c r="F315">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>45</v>
+      </c>
+      <c r="B316" t="s">
+        <v>51</v>
+      </c>
+      <c r="C316" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316" t="s">
+        <v>30</v>
+      </c>
+      <c r="E316" t="s">
+        <v>63</v>
+      </c>
+      <c r="F316">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>45</v>
+      </c>
+      <c r="B317" t="s">
+        <v>51</v>
+      </c>
+      <c r="C317" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" t="s">
+        <v>30</v>
+      </c>
+      <c r="E317" t="s">
+        <v>64</v>
+      </c>
+      <c r="F317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>45</v>
+      </c>
+      <c r="B318" t="s">
+        <v>51</v>
+      </c>
+      <c r="C318" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" t="s">
+        <v>30</v>
+      </c>
+      <c r="E318" t="s">
+        <v>33</v>
+      </c>
+      <c r="F318">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>45</v>
+      </c>
+      <c r="B319" t="s">
+        <v>51</v>
+      </c>
+      <c r="C319" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" t="s">
+        <v>30</v>
+      </c>
+      <c r="E319" t="s">
+        <v>62</v>
+      </c>
+      <c r="F319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>45</v>
+      </c>
+      <c r="B320" t="s">
+        <v>51</v>
+      </c>
+      <c r="C320" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" t="s">
+        <v>30</v>
+      </c>
+      <c r="E320" t="s">
+        <v>65</v>
+      </c>
+      <c r="F320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>45</v>
+      </c>
+      <c r="B321" t="s">
+        <v>52</v>
+      </c>
+      <c r="C321" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" t="s">
+        <v>9</v>
+      </c>
+      <c r="E321" t="s">
+        <v>10</v>
+      </c>
+      <c r="F321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>45</v>
+      </c>
+      <c r="B322" t="s">
+        <v>52</v>
+      </c>
+      <c r="C322" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322" t="s">
+        <v>9</v>
+      </c>
+      <c r="E322" t="s">
+        <v>11</v>
+      </c>
+      <c r="F322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>45</v>
+      </c>
+      <c r="B323" t="s">
+        <v>52</v>
+      </c>
+      <c r="C323" t="s">
+        <v>8</v>
+      </c>
+      <c r="D323" t="s">
+        <v>9</v>
+      </c>
+      <c r="E323" t="s">
+        <v>58</v>
+      </c>
+      <c r="F323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>45</v>
+      </c>
+      <c r="B324" t="s">
+        <v>52</v>
+      </c>
+      <c r="C324" t="s">
+        <v>8</v>
+      </c>
+      <c r="D324" t="s">
+        <v>9</v>
+      </c>
+      <c r="E324" t="s">
+        <v>59</v>
+      </c>
+      <c r="F324">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>45</v>
+      </c>
+      <c r="B325" t="s">
+        <v>52</v>
+      </c>
+      <c r="C325" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325" t="s">
+        <v>9</v>
+      </c>
+      <c r="E325" t="s">
+        <v>60</v>
+      </c>
+      <c r="F325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>45</v>
+      </c>
+      <c r="B326" t="s">
+        <v>52</v>
+      </c>
+      <c r="C326" t="s">
+        <v>8</v>
+      </c>
+      <c r="D326" t="s">
+        <v>9</v>
+      </c>
+      <c r="E326" t="s">
+        <v>61</v>
+      </c>
+      <c r="F326">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>45</v>
+      </c>
+      <c r="B327" t="s">
+        <v>52</v>
+      </c>
+      <c r="C327" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" t="s">
+        <v>9</v>
+      </c>
+      <c r="E327" t="s">
+        <v>16</v>
+      </c>
+      <c r="F327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>45</v>
+      </c>
+      <c r="B328" t="s">
+        <v>52</v>
+      </c>
+      <c r="C328" t="s">
+        <v>8</v>
+      </c>
+      <c r="D328" t="s">
+        <v>9</v>
+      </c>
+      <c r="E328" t="s">
+        <v>62</v>
+      </c>
+      <c r="F328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>45</v>
+      </c>
+      <c r="B329" t="s">
+        <v>52</v>
+      </c>
+      <c r="C329" t="s">
+        <v>8</v>
+      </c>
+      <c r="D329" t="s">
+        <v>9</v>
+      </c>
+      <c r="E329" t="s">
+        <v>40</v>
+      </c>
+      <c r="F329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>45</v>
+      </c>
+      <c r="B330" t="s">
+        <v>52</v>
+      </c>
+      <c r="C330" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330" t="s">
+        <v>30</v>
+      </c>
+      <c r="E330" t="s">
+        <v>38</v>
+      </c>
+      <c r="F330">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>45</v>
+      </c>
+      <c r="B331" t="s">
+        <v>52</v>
+      </c>
+      <c r="C331" t="s">
+        <v>8</v>
+      </c>
+      <c r="D331" t="s">
+        <v>30</v>
+      </c>
+      <c r="E331" t="s">
+        <v>63</v>
+      </c>
+      <c r="F331">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>45</v>
+      </c>
+      <c r="B332" t="s">
+        <v>52</v>
+      </c>
+      <c r="C332" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" t="s">
+        <v>30</v>
+      </c>
+      <c r="E332" t="s">
+        <v>64</v>
+      </c>
+      <c r="F332">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>45</v>
+      </c>
+      <c r="B333" t="s">
+        <v>52</v>
+      </c>
+      <c r="C333" t="s">
+        <v>8</v>
+      </c>
+      <c r="D333" t="s">
+        <v>30</v>
+      </c>
+      <c r="E333" t="s">
+        <v>33</v>
+      </c>
+      <c r="F333">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>45</v>
+      </c>
+      <c r="B334" t="s">
+        <v>52</v>
+      </c>
+      <c r="C334" t="s">
+        <v>8</v>
+      </c>
+      <c r="D334" t="s">
+        <v>30</v>
+      </c>
+      <c r="E334" t="s">
+        <v>62</v>
+      </c>
+      <c r="F334">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>45</v>
+      </c>
+      <c r="B335" t="s">
+        <v>52</v>
+      </c>
+      <c r="C335" t="s">
+        <v>8</v>
+      </c>
+      <c r="D335" t="s">
+        <v>30</v>
+      </c>
+      <c r="E335" t="s">
+        <v>65</v>
+      </c>
+      <c r="F335">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>45</v>
+      </c>
+      <c r="B336" t="s">
+        <v>53</v>
+      </c>
+      <c r="C336" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" t="s">
+        <v>9</v>
+      </c>
+      <c r="E336" t="s">
+        <v>10</v>
+      </c>
+      <c r="F336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>45</v>
+      </c>
+      <c r="B337" t="s">
+        <v>53</v>
+      </c>
+      <c r="C337" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" t="s">
+        <v>9</v>
+      </c>
+      <c r="E337" t="s">
+        <v>11</v>
+      </c>
+      <c r="F337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>45</v>
+      </c>
+      <c r="B338" t="s">
+        <v>53</v>
+      </c>
+      <c r="C338" t="s">
+        <v>8</v>
+      </c>
+      <c r="D338" t="s">
+        <v>9</v>
+      </c>
+      <c r="E338" t="s">
+        <v>58</v>
+      </c>
+      <c r="F338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>45</v>
+      </c>
+      <c r="B339" t="s">
+        <v>53</v>
+      </c>
+      <c r="C339" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" t="s">
+        <v>9</v>
+      </c>
+      <c r="E339" t="s">
+        <v>59</v>
+      </c>
+      <c r="F339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>45</v>
+      </c>
+      <c r="B340" t="s">
+        <v>53</v>
+      </c>
+      <c r="C340" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340" t="s">
+        <v>9</v>
+      </c>
+      <c r="E340" t="s">
+        <v>60</v>
+      </c>
+      <c r="F340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>45</v>
+      </c>
+      <c r="B341" t="s">
+        <v>53</v>
+      </c>
+      <c r="C341" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" t="s">
+        <v>9</v>
+      </c>
+      <c r="E341" t="s">
+        <v>61</v>
+      </c>
+      <c r="F341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>45</v>
+      </c>
+      <c r="B342" t="s">
+        <v>53</v>
+      </c>
+      <c r="C342" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" t="s">
+        <v>16</v>
+      </c>
+      <c r="F342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>45</v>
+      </c>
+      <c r="B343" t="s">
+        <v>53</v>
+      </c>
+      <c r="C343" t="s">
+        <v>8</v>
+      </c>
+      <c r="D343" t="s">
+        <v>9</v>
+      </c>
+      <c r="E343" t="s">
+        <v>62</v>
+      </c>
+      <c r="F343">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>45</v>
+      </c>
+      <c r="B344" t="s">
+        <v>53</v>
+      </c>
+      <c r="C344" t="s">
+        <v>8</v>
+      </c>
+      <c r="D344" t="s">
+        <v>9</v>
+      </c>
+      <c r="E344" t="s">
+        <v>40</v>
+      </c>
+      <c r="F344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>45</v>
+      </c>
+      <c r="B345" t="s">
+        <v>53</v>
+      </c>
+      <c r="C345" t="s">
+        <v>8</v>
+      </c>
+      <c r="D345" t="s">
+        <v>30</v>
+      </c>
+      <c r="E345" t="s">
+        <v>38</v>
+      </c>
+      <c r="F345">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>45</v>
+      </c>
+      <c r="B346" t="s">
+        <v>53</v>
+      </c>
+      <c r="C346" t="s">
+        <v>8</v>
+      </c>
+      <c r="D346" t="s">
+        <v>30</v>
+      </c>
+      <c r="E346" t="s">
+        <v>63</v>
+      </c>
+      <c r="F346">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>45</v>
+      </c>
+      <c r="B347" t="s">
+        <v>53</v>
+      </c>
+      <c r="C347" t="s">
+        <v>8</v>
+      </c>
+      <c r="D347" t="s">
+        <v>30</v>
+      </c>
+      <c r="E347" t="s">
+        <v>64</v>
+      </c>
+      <c r="F347">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>45</v>
+      </c>
+      <c r="B348" t="s">
+        <v>53</v>
+      </c>
+      <c r="C348" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348" t="s">
+        <v>30</v>
+      </c>
+      <c r="E348" t="s">
+        <v>33</v>
+      </c>
+      <c r="F348">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>45</v>
+      </c>
+      <c r="B349" t="s">
+        <v>53</v>
+      </c>
+      <c r="C349" t="s">
+        <v>8</v>
+      </c>
+      <c r="D349" t="s">
+        <v>30</v>
+      </c>
+      <c r="E349" t="s">
+        <v>62</v>
+      </c>
+      <c r="F349">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>45</v>
+      </c>
+      <c r="B350" t="s">
+        <v>53</v>
+      </c>
+      <c r="C350" t="s">
+        <v>8</v>
+      </c>
+      <c r="D350" t="s">
+        <v>30</v>
+      </c>
+      <c r="E350" t="s">
+        <v>65</v>
+      </c>
+      <c r="F350">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>45</v>
+      </c>
+      <c r="B351" t="s">
+        <v>54</v>
+      </c>
+      <c r="C351" t="s">
+        <v>8</v>
+      </c>
+      <c r="D351" t="s">
+        <v>9</v>
+      </c>
+      <c r="E351" t="s">
+        <v>10</v>
+      </c>
+      <c r="F351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>45</v>
+      </c>
+      <c r="B352" t="s">
+        <v>54</v>
+      </c>
+      <c r="C352" t="s">
+        <v>8</v>
+      </c>
+      <c r="D352" t="s">
+        <v>9</v>
+      </c>
+      <c r="E352" t="s">
+        <v>11</v>
+      </c>
+      <c r="F352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>45</v>
+      </c>
+      <c r="B353" t="s">
+        <v>54</v>
+      </c>
+      <c r="C353" t="s">
+        <v>8</v>
+      </c>
+      <c r="D353" t="s">
+        <v>9</v>
+      </c>
+      <c r="E353" t="s">
+        <v>58</v>
+      </c>
+      <c r="F353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>45</v>
+      </c>
+      <c r="B354" t="s">
+        <v>54</v>
+      </c>
+      <c r="C354" t="s">
+        <v>8</v>
+      </c>
+      <c r="D354" t="s">
+        <v>9</v>
+      </c>
+      <c r="E354" t="s">
+        <v>59</v>
+      </c>
+      <c r="F354">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>45</v>
+      </c>
+      <c r="B355" t="s">
+        <v>54</v>
+      </c>
+      <c r="C355" t="s">
+        <v>8</v>
+      </c>
+      <c r="D355" t="s">
+        <v>9</v>
+      </c>
+      <c r="E355" t="s">
+        <v>60</v>
+      </c>
+      <c r="F355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>45</v>
+      </c>
+      <c r="B356" t="s">
+        <v>54</v>
+      </c>
+      <c r="C356" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356" t="s">
+        <v>9</v>
+      </c>
+      <c r="E356" t="s">
+        <v>61</v>
+      </c>
+      <c r="F356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>45</v>
+      </c>
+      <c r="B357" t="s">
+        <v>54</v>
+      </c>
+      <c r="C357" t="s">
+        <v>8</v>
+      </c>
+      <c r="D357" t="s">
+        <v>9</v>
+      </c>
+      <c r="E357" t="s">
+        <v>16</v>
+      </c>
+      <c r="F357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>45</v>
+      </c>
+      <c r="B358" t="s">
+        <v>54</v>
+      </c>
+      <c r="C358" t="s">
+        <v>8</v>
+      </c>
+      <c r="D358" t="s">
+        <v>9</v>
+      </c>
+      <c r="E358" t="s">
+        <v>62</v>
+      </c>
+      <c r="F358">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>45</v>
+      </c>
+      <c r="B359" t="s">
+        <v>54</v>
+      </c>
+      <c r="C359" t="s">
+        <v>8</v>
+      </c>
+      <c r="D359" t="s">
+        <v>9</v>
+      </c>
+      <c r="E359" t="s">
+        <v>40</v>
+      </c>
+      <c r="F359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>45</v>
+      </c>
+      <c r="B360" t="s">
+        <v>54</v>
+      </c>
+      <c r="C360" t="s">
+        <v>8</v>
+      </c>
+      <c r="D360" t="s">
+        <v>30</v>
+      </c>
+      <c r="E360" t="s">
+        <v>38</v>
+      </c>
+      <c r="F360">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>45</v>
+      </c>
+      <c r="B361" t="s">
+        <v>54</v>
+      </c>
+      <c r="C361" t="s">
+        <v>8</v>
+      </c>
+      <c r="D361" t="s">
+        <v>30</v>
+      </c>
+      <c r="E361" t="s">
+        <v>63</v>
+      </c>
+      <c r="F361">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>45</v>
+      </c>
+      <c r="B362" t="s">
+        <v>54</v>
+      </c>
+      <c r="C362" t="s">
+        <v>8</v>
+      </c>
+      <c r="D362" t="s">
+        <v>30</v>
+      </c>
+      <c r="E362" t="s">
+        <v>64</v>
+      </c>
+      <c r="F362">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>45</v>
+      </c>
+      <c r="B363" t="s">
+        <v>54</v>
+      </c>
+      <c r="C363" t="s">
+        <v>8</v>
+      </c>
+      <c r="D363" t="s">
+        <v>30</v>
+      </c>
+      <c r="E363" t="s">
+        <v>33</v>
+      </c>
+      <c r="F363">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>45</v>
+      </c>
+      <c r="B364" t="s">
+        <v>54</v>
+      </c>
+      <c r="C364" t="s">
+        <v>8</v>
+      </c>
+      <c r="D364" t="s">
+        <v>30</v>
+      </c>
+      <c r="E364" t="s">
+        <v>62</v>
+      </c>
+      <c r="F364">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>45</v>
+      </c>
+      <c r="B365" t="s">
+        <v>54</v>
+      </c>
+      <c r="C365" t="s">
+        <v>8</v>
+      </c>
+      <c r="D365" t="s">
+        <v>30</v>
+      </c>
+      <c r="E365" t="s">
+        <v>65</v>
+      </c>
+      <c r="F365">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>45</v>
+      </c>
+      <c r="B366" t="s">
+        <v>55</v>
+      </c>
+      <c r="C366" t="s">
+        <v>8</v>
+      </c>
+      <c r="D366" t="s">
+        <v>9</v>
+      </c>
+      <c r="E366" t="s">
+        <v>10</v>
+      </c>
+      <c r="F366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>45</v>
+      </c>
+      <c r="B367" t="s">
+        <v>55</v>
+      </c>
+      <c r="C367" t="s">
+        <v>8</v>
+      </c>
+      <c r="D367" t="s">
+        <v>9</v>
+      </c>
+      <c r="E367" t="s">
+        <v>11</v>
+      </c>
+      <c r="F367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>45</v>
+      </c>
+      <c r="B368" t="s">
+        <v>55</v>
+      </c>
+      <c r="C368" t="s">
+        <v>8</v>
+      </c>
+      <c r="D368" t="s">
+        <v>9</v>
+      </c>
+      <c r="E368" t="s">
+        <v>58</v>
+      </c>
+      <c r="F368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>45</v>
+      </c>
+      <c r="B369" t="s">
+        <v>55</v>
+      </c>
+      <c r="C369" t="s">
+        <v>8</v>
+      </c>
+      <c r="D369" t="s">
+        <v>9</v>
+      </c>
+      <c r="E369" t="s">
+        <v>59</v>
+      </c>
+      <c r="F369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>45</v>
+      </c>
+      <c r="B370" t="s">
+        <v>55</v>
+      </c>
+      <c r="C370" t="s">
+        <v>8</v>
+      </c>
+      <c r="D370" t="s">
+        <v>9</v>
+      </c>
+      <c r="E370" t="s">
+        <v>60</v>
+      </c>
+      <c r="F370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>45</v>
+      </c>
+      <c r="B371" t="s">
+        <v>55</v>
+      </c>
+      <c r="C371" t="s">
+        <v>8</v>
+      </c>
+      <c r="D371" t="s">
+        <v>9</v>
+      </c>
+      <c r="E371" t="s">
+        <v>61</v>
+      </c>
+      <c r="F371">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>45</v>
+      </c>
+      <c r="B372" t="s">
+        <v>55</v>
+      </c>
+      <c r="C372" t="s">
+        <v>8</v>
+      </c>
+      <c r="D372" t="s">
+        <v>9</v>
+      </c>
+      <c r="E372" t="s">
+        <v>16</v>
+      </c>
+      <c r="F372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>45</v>
+      </c>
+      <c r="B373" t="s">
+        <v>55</v>
+      </c>
+      <c r="C373" t="s">
+        <v>8</v>
+      </c>
+      <c r="D373" t="s">
+        <v>9</v>
+      </c>
+      <c r="E373" t="s">
+        <v>62</v>
+      </c>
+      <c r="F373">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>45</v>
+      </c>
+      <c r="B374" t="s">
+        <v>55</v>
+      </c>
+      <c r="C374" t="s">
+        <v>8</v>
+      </c>
+      <c r="D374" t="s">
+        <v>9</v>
+      </c>
+      <c r="E374" t="s">
+        <v>40</v>
+      </c>
+      <c r="F374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>45</v>
+      </c>
+      <c r="B375" t="s">
+        <v>55</v>
+      </c>
+      <c r="C375" t="s">
+        <v>8</v>
+      </c>
+      <c r="D375" t="s">
+        <v>30</v>
+      </c>
+      <c r="E375" t="s">
+        <v>38</v>
+      </c>
+      <c r="F375">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>45</v>
+      </c>
+      <c r="B376" t="s">
+        <v>55</v>
+      </c>
+      <c r="C376" t="s">
+        <v>8</v>
+      </c>
+      <c r="D376" t="s">
+        <v>30</v>
+      </c>
+      <c r="E376" t="s">
+        <v>63</v>
+      </c>
+      <c r="F376">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>45</v>
+      </c>
+      <c r="B377" t="s">
+        <v>55</v>
+      </c>
+      <c r="C377" t="s">
+        <v>8</v>
+      </c>
+      <c r="D377" t="s">
+        <v>30</v>
+      </c>
+      <c r="E377" t="s">
+        <v>64</v>
+      </c>
+      <c r="F377">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>45</v>
+      </c>
+      <c r="B378" t="s">
+        <v>55</v>
+      </c>
+      <c r="C378" t="s">
+        <v>8</v>
+      </c>
+      <c r="D378" t="s">
+        <v>30</v>
+      </c>
+      <c r="E378" t="s">
+        <v>33</v>
+      </c>
+      <c r="F378">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>45</v>
+      </c>
+      <c r="B379" t="s">
+        <v>55</v>
+      </c>
+      <c r="C379" t="s">
+        <v>8</v>
+      </c>
+      <c r="D379" t="s">
+        <v>30</v>
+      </c>
+      <c r="E379" t="s">
+        <v>62</v>
+      </c>
+      <c r="F379">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>45</v>
+      </c>
+      <c r="B380" t="s">
+        <v>55</v>
+      </c>
+      <c r="C380" t="s">
+        <v>8</v>
+      </c>
+      <c r="D380" t="s">
+        <v>30</v>
+      </c>
+      <c r="E380" t="s">
+        <v>65</v>
+      </c>
+      <c r="F380">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BilanConcours/Ecoles.xlsx
+++ b/BilanConcours/Ecoles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\BilanConcours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC44B4B-2F26-48CF-8049-CDE1636F8C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D020F39-7935-4ABD-BE0A-F379AEAADF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ecoles" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5567" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6656" uniqueCount="149">
   <si>
     <t>Ecole</t>
   </si>
@@ -469,15 +469,33 @@
   <si>
     <t>TP SII</t>
   </si>
+  <si>
+    <t>Autres épreuves</t>
+  </si>
+  <si>
+    <t>Entretien de motivation</t>
+  </si>
+  <si>
+    <t>Moyenne épreuves spécifiques</t>
+  </si>
+  <si>
+    <t>Moyenne épreuves écrites</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -790,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A85"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85:C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1851,53 +1869,113 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>127</v>
+      </c>
       <c r="B86" t="s">
         <v>128</v>
       </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>127</v>
+      </c>
       <c r="B87" t="s">
         <v>129</v>
       </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>127</v>
+      </c>
       <c r="B88" t="s">
         <v>130</v>
       </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>127</v>
+      </c>
       <c r="B89" t="s">
         <v>131</v>
       </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>127</v>
+      </c>
       <c r="B90" t="s">
         <v>132</v>
       </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>127</v>
+      </c>
       <c r="B91" t="s">
         <v>133</v>
       </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>127</v>
+      </c>
       <c r="B92" t="s">
         <v>134</v>
       </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>127</v>
+      </c>
       <c r="B93" t="s">
         <v>135</v>
       </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>127</v>
+      </c>
       <c r="B94" t="s">
         <v>136</v>
       </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>127</v>
+      </c>
       <c r="B95" t="s">
         <v>137</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1907,16 +1985,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528112A4-E218-487D-A5F5-2C549F5C1B3F}">
-  <dimension ref="A1:F1147"/>
+  <dimension ref="A1:F1275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A718" workbookViewId="0">
-      <selection activeCell="B718" sqref="B718"/>
+    <sheetView topLeftCell="A1260" workbookViewId="0">
+      <selection activeCell="B1275" sqref="B1275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
     <col min="3" max="3" width="4.26953125" customWidth="1"/>
     <col min="4" max="4" width="5.36328125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
@@ -16269,6 +16347,9 @@
       <c r="A719" t="s">
         <v>127</v>
       </c>
+      <c r="B719" t="s">
+        <v>126</v>
+      </c>
       <c r="C719" t="s">
         <v>8</v>
       </c>
@@ -16286,6 +16367,9 @@
       <c r="A720" t="s">
         <v>127</v>
       </c>
+      <c r="B720" t="s">
+        <v>126</v>
+      </c>
       <c r="C720" t="s">
         <v>8</v>
       </c>
@@ -16303,6 +16387,9 @@
       <c r="A721" t="s">
         <v>127</v>
       </c>
+      <c r="B721" t="s">
+        <v>126</v>
+      </c>
       <c r="C721" t="s">
         <v>8</v>
       </c>
@@ -16320,6 +16407,9 @@
       <c r="A722" t="s">
         <v>127</v>
       </c>
+      <c r="B722" t="s">
+        <v>126</v>
+      </c>
       <c r="C722" t="s">
         <v>8</v>
       </c>
@@ -16337,6 +16427,9 @@
       <c r="A723" t="s">
         <v>127</v>
       </c>
+      <c r="B723" t="s">
+        <v>126</v>
+      </c>
       <c r="C723" t="s">
         <v>8</v>
       </c>
@@ -16354,6 +16447,9 @@
       <c r="A724" t="s">
         <v>127</v>
       </c>
+      <c r="B724" t="s">
+        <v>126</v>
+      </c>
       <c r="C724" t="s">
         <v>8</v>
       </c>
@@ -16371,6 +16467,9 @@
       <c r="A725" t="s">
         <v>127</v>
       </c>
+      <c r="B725" t="s">
+        <v>126</v>
+      </c>
       <c r="C725" t="s">
         <v>8</v>
       </c>
@@ -16388,6 +16487,9 @@
       <c r="A726" t="s">
         <v>127</v>
       </c>
+      <c r="B726" t="s">
+        <v>126</v>
+      </c>
       <c r="C726" t="s">
         <v>8</v>
       </c>
@@ -16405,6 +16507,9 @@
       <c r="A727" t="s">
         <v>127</v>
       </c>
+      <c r="B727" t="s">
+        <v>126</v>
+      </c>
       <c r="C727" t="s">
         <v>8</v>
       </c>
@@ -16422,6 +16527,9 @@
       <c r="A728" t="s">
         <v>127</v>
       </c>
+      <c r="B728" t="s">
+        <v>126</v>
+      </c>
       <c r="C728" t="s">
         <v>8</v>
       </c>
@@ -16439,6 +16547,9 @@
       <c r="A729" t="s">
         <v>127</v>
       </c>
+      <c r="B729" t="s">
+        <v>126</v>
+      </c>
       <c r="C729" t="s">
         <v>8</v>
       </c>
@@ -16456,6 +16567,9 @@
       <c r="A730" t="s">
         <v>127</v>
       </c>
+      <c r="B730" t="s">
+        <v>126</v>
+      </c>
       <c r="C730" t="s">
         <v>8</v>
       </c>
@@ -16473,6 +16587,9 @@
       <c r="A731" t="s">
         <v>127</v>
       </c>
+      <c r="B731" t="s">
+        <v>126</v>
+      </c>
       <c r="C731" t="s">
         <v>8</v>
       </c>
@@ -16490,6 +16607,9 @@
       <c r="A732" t="s">
         <v>127</v>
       </c>
+      <c r="B732" t="s">
+        <v>94</v>
+      </c>
       <c r="C732" t="s">
         <v>8</v>
       </c>
@@ -16507,6 +16627,9 @@
       <c r="A733" t="s">
         <v>127</v>
       </c>
+      <c r="B733" t="s">
+        <v>94</v>
+      </c>
       <c r="C733" t="s">
         <v>8</v>
       </c>
@@ -16524,6 +16647,9 @@
       <c r="A734" t="s">
         <v>127</v>
       </c>
+      <c r="B734" t="s">
+        <v>94</v>
+      </c>
       <c r="C734" t="s">
         <v>8</v>
       </c>
@@ -16541,6 +16667,9 @@
       <c r="A735" t="s">
         <v>127</v>
       </c>
+      <c r="B735" t="s">
+        <v>94</v>
+      </c>
       <c r="C735" t="s">
         <v>8</v>
       </c>
@@ -16558,6 +16687,9 @@
       <c r="A736" t="s">
         <v>127</v>
       </c>
+      <c r="B736" t="s">
+        <v>94</v>
+      </c>
       <c r="C736" t="s">
         <v>8</v>
       </c>
@@ -16575,6 +16707,9 @@
       <c r="A737" t="s">
         <v>127</v>
       </c>
+      <c r="B737" t="s">
+        <v>94</v>
+      </c>
       <c r="C737" t="s">
         <v>8</v>
       </c>
@@ -16592,6 +16727,9 @@
       <c r="A738" t="s">
         <v>127</v>
       </c>
+      <c r="B738" t="s">
+        <v>94</v>
+      </c>
       <c r="C738" t="s">
         <v>8</v>
       </c>
@@ -16609,6 +16747,9 @@
       <c r="A739" t="s">
         <v>127</v>
       </c>
+      <c r="B739" t="s">
+        <v>94</v>
+      </c>
       <c r="C739" t="s">
         <v>8</v>
       </c>
@@ -16626,6 +16767,9 @@
       <c r="A740" t="s">
         <v>127</v>
       </c>
+      <c r="B740" t="s">
+        <v>94</v>
+      </c>
       <c r="C740" t="s">
         <v>8</v>
       </c>
@@ -16643,6 +16787,9 @@
       <c r="A741" t="s">
         <v>127</v>
       </c>
+      <c r="B741" t="s">
+        <v>94</v>
+      </c>
       <c r="C741" t="s">
         <v>8</v>
       </c>
@@ -16660,6 +16807,9 @@
       <c r="A742" t="s">
         <v>127</v>
       </c>
+      <c r="B742" t="s">
+        <v>94</v>
+      </c>
       <c r="C742" t="s">
         <v>8</v>
       </c>
@@ -16677,6 +16827,9 @@
       <c r="A743" t="s">
         <v>127</v>
       </c>
+      <c r="B743" t="s">
+        <v>94</v>
+      </c>
       <c r="C743" t="s">
         <v>8</v>
       </c>
@@ -16694,6 +16847,9 @@
       <c r="A744" t="s">
         <v>127</v>
       </c>
+      <c r="B744" t="s">
+        <v>94</v>
+      </c>
       <c r="C744" t="s">
         <v>8</v>
       </c>
@@ -16711,6 +16867,9 @@
       <c r="A745" t="s">
         <v>127</v>
       </c>
+      <c r="B745" t="s">
+        <v>96</v>
+      </c>
       <c r="C745" t="s">
         <v>8</v>
       </c>
@@ -16728,6 +16887,9 @@
       <c r="A746" t="s">
         <v>127</v>
       </c>
+      <c r="B746" t="s">
+        <v>96</v>
+      </c>
       <c r="C746" t="s">
         <v>8</v>
       </c>
@@ -16745,6 +16907,9 @@
       <c r="A747" t="s">
         <v>127</v>
       </c>
+      <c r="B747" t="s">
+        <v>96</v>
+      </c>
       <c r="C747" t="s">
         <v>8</v>
       </c>
@@ -16762,6 +16927,9 @@
       <c r="A748" t="s">
         <v>127</v>
       </c>
+      <c r="B748" t="s">
+        <v>96</v>
+      </c>
       <c r="C748" t="s">
         <v>8</v>
       </c>
@@ -16779,6 +16947,9 @@
       <c r="A749" t="s">
         <v>127</v>
       </c>
+      <c r="B749" t="s">
+        <v>96</v>
+      </c>
       <c r="C749" t="s">
         <v>8</v>
       </c>
@@ -16796,6 +16967,9 @@
       <c r="A750" t="s">
         <v>127</v>
       </c>
+      <c r="B750" t="s">
+        <v>96</v>
+      </c>
       <c r="C750" t="s">
         <v>8</v>
       </c>
@@ -16813,6 +16987,9 @@
       <c r="A751" t="s">
         <v>127</v>
       </c>
+      <c r="B751" t="s">
+        <v>96</v>
+      </c>
       <c r="C751" t="s">
         <v>8</v>
       </c>
@@ -16830,6 +17007,9 @@
       <c r="A752" t="s">
         <v>127</v>
       </c>
+      <c r="B752" t="s">
+        <v>96</v>
+      </c>
       <c r="C752" t="s">
         <v>8</v>
       </c>
@@ -16847,6 +17027,9 @@
       <c r="A753" t="s">
         <v>127</v>
       </c>
+      <c r="B753" t="s">
+        <v>96</v>
+      </c>
       <c r="C753" t="s">
         <v>8</v>
       </c>
@@ -16864,6 +17047,9 @@
       <c r="A754" t="s">
         <v>127</v>
       </c>
+      <c r="B754" t="s">
+        <v>96</v>
+      </c>
       <c r="C754" t="s">
         <v>8</v>
       </c>
@@ -16881,6 +17067,9 @@
       <c r="A755" t="s">
         <v>127</v>
       </c>
+      <c r="B755" t="s">
+        <v>96</v>
+      </c>
       <c r="C755" t="s">
         <v>8</v>
       </c>
@@ -16898,6 +17087,9 @@
       <c r="A756" t="s">
         <v>127</v>
       </c>
+      <c r="B756" t="s">
+        <v>96</v>
+      </c>
       <c r="C756" t="s">
         <v>8</v>
       </c>
@@ -16915,6 +17107,9 @@
       <c r="A757" t="s">
         <v>127</v>
       </c>
+      <c r="B757" t="s">
+        <v>96</v>
+      </c>
       <c r="C757" t="s">
         <v>8</v>
       </c>
@@ -16932,6 +17127,9 @@
       <c r="A758" t="s">
         <v>127</v>
       </c>
+      <c r="B758" t="s">
+        <v>97</v>
+      </c>
       <c r="C758" t="s">
         <v>8</v>
       </c>
@@ -16949,6 +17147,9 @@
       <c r="A759" t="s">
         <v>127</v>
       </c>
+      <c r="B759" t="s">
+        <v>97</v>
+      </c>
       <c r="C759" t="s">
         <v>8</v>
       </c>
@@ -16966,6 +17167,9 @@
       <c r="A760" t="s">
         <v>127</v>
       </c>
+      <c r="B760" t="s">
+        <v>97</v>
+      </c>
       <c r="C760" t="s">
         <v>8</v>
       </c>
@@ -16983,6 +17187,9 @@
       <c r="A761" t="s">
         <v>127</v>
       </c>
+      <c r="B761" t="s">
+        <v>97</v>
+      </c>
       <c r="C761" t="s">
         <v>8</v>
       </c>
@@ -17000,6 +17207,9 @@
       <c r="A762" t="s">
         <v>127</v>
       </c>
+      <c r="B762" t="s">
+        <v>97</v>
+      </c>
       <c r="C762" t="s">
         <v>8</v>
       </c>
@@ -17017,6 +17227,9 @@
       <c r="A763" t="s">
         <v>127</v>
       </c>
+      <c r="B763" t="s">
+        <v>97</v>
+      </c>
       <c r="C763" t="s">
         <v>8</v>
       </c>
@@ -17034,6 +17247,9 @@
       <c r="A764" t="s">
         <v>127</v>
       </c>
+      <c r="B764" t="s">
+        <v>97</v>
+      </c>
       <c r="C764" t="s">
         <v>8</v>
       </c>
@@ -17051,6 +17267,9 @@
       <c r="A765" t="s">
         <v>127</v>
       </c>
+      <c r="B765" t="s">
+        <v>97</v>
+      </c>
       <c r="C765" t="s">
         <v>8</v>
       </c>
@@ -17068,6 +17287,9 @@
       <c r="A766" t="s">
         <v>127</v>
       </c>
+      <c r="B766" t="s">
+        <v>97</v>
+      </c>
       <c r="C766" t="s">
         <v>8</v>
       </c>
@@ -17085,6 +17307,9 @@
       <c r="A767" t="s">
         <v>127</v>
       </c>
+      <c r="B767" t="s">
+        <v>97</v>
+      </c>
       <c r="C767" t="s">
         <v>8</v>
       </c>
@@ -17102,6 +17327,9 @@
       <c r="A768" t="s">
         <v>127</v>
       </c>
+      <c r="B768" t="s">
+        <v>97</v>
+      </c>
       <c r="C768" t="s">
         <v>8</v>
       </c>
@@ -17119,6 +17347,9 @@
       <c r="A769" t="s">
         <v>127</v>
       </c>
+      <c r="B769" t="s">
+        <v>97</v>
+      </c>
       <c r="C769" t="s">
         <v>8</v>
       </c>
@@ -17136,6 +17367,9 @@
       <c r="A770" t="s">
         <v>127</v>
       </c>
+      <c r="B770" t="s">
+        <v>97</v>
+      </c>
       <c r="C770" t="s">
         <v>8</v>
       </c>
@@ -17153,6 +17387,9 @@
       <c r="A771" t="s">
         <v>127</v>
       </c>
+      <c r="B771" t="s">
+        <v>98</v>
+      </c>
       <c r="C771" t="s">
         <v>8</v>
       </c>
@@ -17170,6 +17407,9 @@
       <c r="A772" t="s">
         <v>127</v>
       </c>
+      <c r="B772" t="s">
+        <v>98</v>
+      </c>
       <c r="C772" t="s">
         <v>8</v>
       </c>
@@ -17187,6 +17427,9 @@
       <c r="A773" t="s">
         <v>127</v>
       </c>
+      <c r="B773" t="s">
+        <v>98</v>
+      </c>
       <c r="C773" t="s">
         <v>8</v>
       </c>
@@ -17204,6 +17447,9 @@
       <c r="A774" t="s">
         <v>127</v>
       </c>
+      <c r="B774" t="s">
+        <v>98</v>
+      </c>
       <c r="C774" t="s">
         <v>8</v>
       </c>
@@ -17221,6 +17467,9 @@
       <c r="A775" t="s">
         <v>127</v>
       </c>
+      <c r="B775" t="s">
+        <v>98</v>
+      </c>
       <c r="C775" t="s">
         <v>8</v>
       </c>
@@ -17238,6 +17487,9 @@
       <c r="A776" t="s">
         <v>127</v>
       </c>
+      <c r="B776" t="s">
+        <v>98</v>
+      </c>
       <c r="C776" t="s">
         <v>8</v>
       </c>
@@ -17255,6 +17507,9 @@
       <c r="A777" t="s">
         <v>127</v>
       </c>
+      <c r="B777" t="s">
+        <v>98</v>
+      </c>
       <c r="C777" t="s">
         <v>8</v>
       </c>
@@ -17272,6 +17527,9 @@
       <c r="A778" t="s">
         <v>127</v>
       </c>
+      <c r="B778" t="s">
+        <v>98</v>
+      </c>
       <c r="C778" t="s">
         <v>8</v>
       </c>
@@ -17289,6 +17547,9 @@
       <c r="A779" t="s">
         <v>127</v>
       </c>
+      <c r="B779" t="s">
+        <v>98</v>
+      </c>
       <c r="C779" t="s">
         <v>8</v>
       </c>
@@ -17306,6 +17567,9 @@
       <c r="A780" t="s">
         <v>127</v>
       </c>
+      <c r="B780" t="s">
+        <v>98</v>
+      </c>
       <c r="C780" t="s">
         <v>8</v>
       </c>
@@ -17323,6 +17587,9 @@
       <c r="A781" t="s">
         <v>127</v>
       </c>
+      <c r="B781" t="s">
+        <v>98</v>
+      </c>
       <c r="C781" t="s">
         <v>8</v>
       </c>
@@ -17340,6 +17607,9 @@
       <c r="A782" t="s">
         <v>127</v>
       </c>
+      <c r="B782" t="s">
+        <v>98</v>
+      </c>
       <c r="C782" t="s">
         <v>8</v>
       </c>
@@ -17357,6 +17627,9 @@
       <c r="A783" t="s">
         <v>127</v>
       </c>
+      <c r="B783" t="s">
+        <v>98</v>
+      </c>
       <c r="C783" t="s">
         <v>8</v>
       </c>
@@ -17374,6 +17647,9 @@
       <c r="A784" t="s">
         <v>127</v>
       </c>
+      <c r="B784" t="s">
+        <v>99</v>
+      </c>
       <c r="C784" t="s">
         <v>8</v>
       </c>
@@ -17391,6 +17667,9 @@
       <c r="A785" t="s">
         <v>127</v>
       </c>
+      <c r="B785" t="s">
+        <v>99</v>
+      </c>
       <c r="C785" t="s">
         <v>8</v>
       </c>
@@ -17408,6 +17687,9 @@
       <c r="A786" t="s">
         <v>127</v>
       </c>
+      <c r="B786" t="s">
+        <v>99</v>
+      </c>
       <c r="C786" t="s">
         <v>8</v>
       </c>
@@ -17425,6 +17707,9 @@
       <c r="A787" t="s">
         <v>127</v>
       </c>
+      <c r="B787" t="s">
+        <v>99</v>
+      </c>
       <c r="C787" t="s">
         <v>8</v>
       </c>
@@ -17442,6 +17727,9 @@
       <c r="A788" t="s">
         <v>127</v>
       </c>
+      <c r="B788" t="s">
+        <v>99</v>
+      </c>
       <c r="C788" t="s">
         <v>8</v>
       </c>
@@ -17459,6 +17747,9 @@
       <c r="A789" t="s">
         <v>127</v>
       </c>
+      <c r="B789" t="s">
+        <v>99</v>
+      </c>
       <c r="C789" t="s">
         <v>8</v>
       </c>
@@ -17476,6 +17767,9 @@
       <c r="A790" t="s">
         <v>127</v>
       </c>
+      <c r="B790" t="s">
+        <v>99</v>
+      </c>
       <c r="C790" t="s">
         <v>8</v>
       </c>
@@ -17493,6 +17787,9 @@
       <c r="A791" t="s">
         <v>127</v>
       </c>
+      <c r="B791" t="s">
+        <v>99</v>
+      </c>
       <c r="C791" t="s">
         <v>8</v>
       </c>
@@ -17510,6 +17807,9 @@
       <c r="A792" t="s">
         <v>127</v>
       </c>
+      <c r="B792" t="s">
+        <v>99</v>
+      </c>
       <c r="C792" t="s">
         <v>8</v>
       </c>
@@ -17527,6 +17827,9 @@
       <c r="A793" t="s">
         <v>127</v>
       </c>
+      <c r="B793" t="s">
+        <v>99</v>
+      </c>
       <c r="C793" t="s">
         <v>8</v>
       </c>
@@ -17544,6 +17847,9 @@
       <c r="A794" t="s">
         <v>127</v>
       </c>
+      <c r="B794" t="s">
+        <v>99</v>
+      </c>
       <c r="C794" t="s">
         <v>8</v>
       </c>
@@ -17561,6 +17867,9 @@
       <c r="A795" t="s">
         <v>127</v>
       </c>
+      <c r="B795" t="s">
+        <v>99</v>
+      </c>
       <c r="C795" t="s">
         <v>8</v>
       </c>
@@ -17578,6 +17887,9 @@
       <c r="A796" t="s">
         <v>127</v>
       </c>
+      <c r="B796" t="s">
+        <v>99</v>
+      </c>
       <c r="C796" t="s">
         <v>8</v>
       </c>
@@ -17595,6 +17907,9 @@
       <c r="A797" t="s">
         <v>127</v>
       </c>
+      <c r="B797" t="s">
+        <v>100</v>
+      </c>
       <c r="C797" t="s">
         <v>8</v>
       </c>
@@ -17612,6 +17927,9 @@
       <c r="A798" t="s">
         <v>127</v>
       </c>
+      <c r="B798" t="s">
+        <v>100</v>
+      </c>
       <c r="C798" t="s">
         <v>8</v>
       </c>
@@ -17629,6 +17947,9 @@
       <c r="A799" t="s">
         <v>127</v>
       </c>
+      <c r="B799" t="s">
+        <v>100</v>
+      </c>
       <c r="C799" t="s">
         <v>8</v>
       </c>
@@ -17646,6 +17967,9 @@
       <c r="A800" t="s">
         <v>127</v>
       </c>
+      <c r="B800" t="s">
+        <v>100</v>
+      </c>
       <c r="C800" t="s">
         <v>8</v>
       </c>
@@ -17663,6 +17987,9 @@
       <c r="A801" t="s">
         <v>127</v>
       </c>
+      <c r="B801" t="s">
+        <v>100</v>
+      </c>
       <c r="C801" t="s">
         <v>8</v>
       </c>
@@ -17680,6 +18007,9 @@
       <c r="A802" t="s">
         <v>127</v>
       </c>
+      <c r="B802" t="s">
+        <v>100</v>
+      </c>
       <c r="C802" t="s">
         <v>8</v>
       </c>
@@ -17697,6 +18027,9 @@
       <c r="A803" t="s">
         <v>127</v>
       </c>
+      <c r="B803" t="s">
+        <v>100</v>
+      </c>
       <c r="C803" t="s">
         <v>8</v>
       </c>
@@ -17714,6 +18047,9 @@
       <c r="A804" t="s">
         <v>127</v>
       </c>
+      <c r="B804" t="s">
+        <v>100</v>
+      </c>
       <c r="C804" t="s">
         <v>8</v>
       </c>
@@ -17731,6 +18067,9 @@
       <c r="A805" t="s">
         <v>127</v>
       </c>
+      <c r="B805" t="s">
+        <v>100</v>
+      </c>
       <c r="C805" t="s">
         <v>8</v>
       </c>
@@ -17748,6 +18087,9 @@
       <c r="A806" t="s">
         <v>127</v>
       </c>
+      <c r="B806" t="s">
+        <v>100</v>
+      </c>
       <c r="C806" t="s">
         <v>8</v>
       </c>
@@ -17765,6 +18107,9 @@
       <c r="A807" t="s">
         <v>127</v>
       </c>
+      <c r="B807" t="s">
+        <v>100</v>
+      </c>
       <c r="C807" t="s">
         <v>8</v>
       </c>
@@ -17782,6 +18127,9 @@
       <c r="A808" t="s">
         <v>127</v>
       </c>
+      <c r="B808" t="s">
+        <v>100</v>
+      </c>
       <c r="C808" t="s">
         <v>8</v>
       </c>
@@ -17799,6 +18147,9 @@
       <c r="A809" t="s">
         <v>127</v>
       </c>
+      <c r="B809" t="s">
+        <v>100</v>
+      </c>
       <c r="C809" t="s">
         <v>8</v>
       </c>
@@ -17816,6 +18167,9 @@
       <c r="A810" t="s">
         <v>127</v>
       </c>
+      <c r="B810" t="s">
+        <v>101</v>
+      </c>
       <c r="C810" t="s">
         <v>8</v>
       </c>
@@ -17833,6 +18187,9 @@
       <c r="A811" t="s">
         <v>127</v>
       </c>
+      <c r="B811" t="s">
+        <v>101</v>
+      </c>
       <c r="C811" t="s">
         <v>8</v>
       </c>
@@ -17850,6 +18207,9 @@
       <c r="A812" t="s">
         <v>127</v>
       </c>
+      <c r="B812" t="s">
+        <v>101</v>
+      </c>
       <c r="C812" t="s">
         <v>8</v>
       </c>
@@ -17867,6 +18227,9 @@
       <c r="A813" t="s">
         <v>127</v>
       </c>
+      <c r="B813" t="s">
+        <v>101</v>
+      </c>
       <c r="C813" t="s">
         <v>8</v>
       </c>
@@ -17884,6 +18247,9 @@
       <c r="A814" t="s">
         <v>127</v>
       </c>
+      <c r="B814" t="s">
+        <v>101</v>
+      </c>
       <c r="C814" t="s">
         <v>8</v>
       </c>
@@ -17901,6 +18267,9 @@
       <c r="A815" t="s">
         <v>127</v>
       </c>
+      <c r="B815" t="s">
+        <v>101</v>
+      </c>
       <c r="C815" t="s">
         <v>8</v>
       </c>
@@ -17918,6 +18287,9 @@
       <c r="A816" t="s">
         <v>127</v>
       </c>
+      <c r="B816" t="s">
+        <v>101</v>
+      </c>
       <c r="C816" t="s">
         <v>8</v>
       </c>
@@ -17935,6 +18307,9 @@
       <c r="A817" t="s">
         <v>127</v>
       </c>
+      <c r="B817" t="s">
+        <v>101</v>
+      </c>
       <c r="C817" t="s">
         <v>8</v>
       </c>
@@ -17952,6 +18327,9 @@
       <c r="A818" t="s">
         <v>127</v>
       </c>
+      <c r="B818" t="s">
+        <v>101</v>
+      </c>
       <c r="C818" t="s">
         <v>8</v>
       </c>
@@ -17969,6 +18347,9 @@
       <c r="A819" t="s">
         <v>127</v>
       </c>
+      <c r="B819" t="s">
+        <v>101</v>
+      </c>
       <c r="C819" t="s">
         <v>8</v>
       </c>
@@ -17986,6 +18367,9 @@
       <c r="A820" t="s">
         <v>127</v>
       </c>
+      <c r="B820" t="s">
+        <v>101</v>
+      </c>
       <c r="C820" t="s">
         <v>8</v>
       </c>
@@ -18003,6 +18387,9 @@
       <c r="A821" t="s">
         <v>127</v>
       </c>
+      <c r="B821" t="s">
+        <v>101</v>
+      </c>
       <c r="C821" t="s">
         <v>8</v>
       </c>
@@ -18020,6 +18407,9 @@
       <c r="A822" t="s">
         <v>127</v>
       </c>
+      <c r="B822" t="s">
+        <v>101</v>
+      </c>
       <c r="C822" t="s">
         <v>8</v>
       </c>
@@ -18037,6 +18427,9 @@
       <c r="A823" t="s">
         <v>127</v>
       </c>
+      <c r="B823" t="s">
+        <v>102</v>
+      </c>
       <c r="C823" t="s">
         <v>8</v>
       </c>
@@ -18054,6 +18447,9 @@
       <c r="A824" t="s">
         <v>127</v>
       </c>
+      <c r="B824" t="s">
+        <v>102</v>
+      </c>
       <c r="C824" t="s">
         <v>8</v>
       </c>
@@ -18071,6 +18467,9 @@
       <c r="A825" t="s">
         <v>127</v>
       </c>
+      <c r="B825" t="s">
+        <v>102</v>
+      </c>
       <c r="C825" t="s">
         <v>8</v>
       </c>
@@ -18088,6 +18487,9 @@
       <c r="A826" t="s">
         <v>127</v>
       </c>
+      <c r="B826" t="s">
+        <v>102</v>
+      </c>
       <c r="C826" t="s">
         <v>8</v>
       </c>
@@ -18105,6 +18507,9 @@
       <c r="A827" t="s">
         <v>127</v>
       </c>
+      <c r="B827" t="s">
+        <v>102</v>
+      </c>
       <c r="C827" t="s">
         <v>8</v>
       </c>
@@ -18122,6 +18527,9 @@
       <c r="A828" t="s">
         <v>127</v>
       </c>
+      <c r="B828" t="s">
+        <v>102</v>
+      </c>
       <c r="C828" t="s">
         <v>8</v>
       </c>
@@ -18139,6 +18547,9 @@
       <c r="A829" t="s">
         <v>127</v>
       </c>
+      <c r="B829" t="s">
+        <v>102</v>
+      </c>
       <c r="C829" t="s">
         <v>8</v>
       </c>
@@ -18156,6 +18567,9 @@
       <c r="A830" t="s">
         <v>127</v>
       </c>
+      <c r="B830" t="s">
+        <v>102</v>
+      </c>
       <c r="C830" t="s">
         <v>8</v>
       </c>
@@ -18173,6 +18587,9 @@
       <c r="A831" t="s">
         <v>127</v>
       </c>
+      <c r="B831" t="s">
+        <v>102</v>
+      </c>
       <c r="C831" t="s">
         <v>8</v>
       </c>
@@ -18190,6 +18607,9 @@
       <c r="A832" t="s">
         <v>127</v>
       </c>
+      <c r="B832" t="s">
+        <v>102</v>
+      </c>
       <c r="C832" t="s">
         <v>8</v>
       </c>
@@ -18207,6 +18627,9 @@
       <c r="A833" t="s">
         <v>127</v>
       </c>
+      <c r="B833" t="s">
+        <v>102</v>
+      </c>
       <c r="C833" t="s">
         <v>8</v>
       </c>
@@ -18224,6 +18647,9 @@
       <c r="A834" t="s">
         <v>127</v>
       </c>
+      <c r="B834" t="s">
+        <v>102</v>
+      </c>
       <c r="C834" t="s">
         <v>8</v>
       </c>
@@ -18241,6 +18667,9 @@
       <c r="A835" t="s">
         <v>127</v>
       </c>
+      <c r="B835" t="s">
+        <v>102</v>
+      </c>
       <c r="C835" t="s">
         <v>8</v>
       </c>
@@ -18258,6 +18687,9 @@
       <c r="A836" t="s">
         <v>127</v>
       </c>
+      <c r="B836" t="s">
+        <v>103</v>
+      </c>
       <c r="C836" t="s">
         <v>8</v>
       </c>
@@ -18275,6 +18707,9 @@
       <c r="A837" t="s">
         <v>127</v>
       </c>
+      <c r="B837" t="s">
+        <v>103</v>
+      </c>
       <c r="C837" t="s">
         <v>8</v>
       </c>
@@ -18292,6 +18727,9 @@
       <c r="A838" t="s">
         <v>127</v>
       </c>
+      <c r="B838" t="s">
+        <v>103</v>
+      </c>
       <c r="C838" t="s">
         <v>8</v>
       </c>
@@ -18309,6 +18747,9 @@
       <c r="A839" t="s">
         <v>127</v>
       </c>
+      <c r="B839" t="s">
+        <v>103</v>
+      </c>
       <c r="C839" t="s">
         <v>8</v>
       </c>
@@ -18326,6 +18767,9 @@
       <c r="A840" t="s">
         <v>127</v>
       </c>
+      <c r="B840" t="s">
+        <v>103</v>
+      </c>
       <c r="C840" t="s">
         <v>8</v>
       </c>
@@ -18343,6 +18787,9 @@
       <c r="A841" t="s">
         <v>127</v>
       </c>
+      <c r="B841" t="s">
+        <v>103</v>
+      </c>
       <c r="C841" t="s">
         <v>8</v>
       </c>
@@ -18360,6 +18807,9 @@
       <c r="A842" t="s">
         <v>127</v>
       </c>
+      <c r="B842" t="s">
+        <v>103</v>
+      </c>
       <c r="C842" t="s">
         <v>8</v>
       </c>
@@ -18377,6 +18827,9 @@
       <c r="A843" t="s">
         <v>127</v>
       </c>
+      <c r="B843" t="s">
+        <v>103</v>
+      </c>
       <c r="C843" t="s">
         <v>8</v>
       </c>
@@ -18394,6 +18847,9 @@
       <c r="A844" t="s">
         <v>127</v>
       </c>
+      <c r="B844" t="s">
+        <v>103</v>
+      </c>
       <c r="C844" t="s">
         <v>8</v>
       </c>
@@ -18411,6 +18867,9 @@
       <c r="A845" t="s">
         <v>127</v>
       </c>
+      <c r="B845" t="s">
+        <v>103</v>
+      </c>
       <c r="C845" t="s">
         <v>8</v>
       </c>
@@ -18428,6 +18887,9 @@
       <c r="A846" t="s">
         <v>127</v>
       </c>
+      <c r="B846" t="s">
+        <v>103</v>
+      </c>
       <c r="C846" t="s">
         <v>8</v>
       </c>
@@ -18445,6 +18907,9 @@
       <c r="A847" t="s">
         <v>127</v>
       </c>
+      <c r="B847" t="s">
+        <v>103</v>
+      </c>
       <c r="C847" t="s">
         <v>8</v>
       </c>
@@ -18462,6 +18927,9 @@
       <c r="A848" t="s">
         <v>127</v>
       </c>
+      <c r="B848" t="s">
+        <v>103</v>
+      </c>
       <c r="C848" t="s">
         <v>8</v>
       </c>
@@ -18479,6 +18947,9 @@
       <c r="A849" t="s">
         <v>127</v>
       </c>
+      <c r="B849" t="s">
+        <v>104</v>
+      </c>
       <c r="C849" t="s">
         <v>8</v>
       </c>
@@ -18496,6 +18967,9 @@
       <c r="A850" t="s">
         <v>127</v>
       </c>
+      <c r="B850" t="s">
+        <v>104</v>
+      </c>
       <c r="C850" t="s">
         <v>8</v>
       </c>
@@ -18513,6 +18987,9 @@
       <c r="A851" t="s">
         <v>127</v>
       </c>
+      <c r="B851" t="s">
+        <v>104</v>
+      </c>
       <c r="C851" t="s">
         <v>8</v>
       </c>
@@ -18530,6 +19007,9 @@
       <c r="A852" t="s">
         <v>127</v>
       </c>
+      <c r="B852" t="s">
+        <v>104</v>
+      </c>
       <c r="C852" t="s">
         <v>8</v>
       </c>
@@ -18547,6 +19027,9 @@
       <c r="A853" t="s">
         <v>127</v>
       </c>
+      <c r="B853" t="s">
+        <v>104</v>
+      </c>
       <c r="C853" t="s">
         <v>8</v>
       </c>
@@ -18564,6 +19047,9 @@
       <c r="A854" t="s">
         <v>127</v>
       </c>
+      <c r="B854" t="s">
+        <v>104</v>
+      </c>
       <c r="C854" t="s">
         <v>8</v>
       </c>
@@ -18581,6 +19067,9 @@
       <c r="A855" t="s">
         <v>127</v>
       </c>
+      <c r="B855" t="s">
+        <v>104</v>
+      </c>
       <c r="C855" t="s">
         <v>8</v>
       </c>
@@ -18598,6 +19087,9 @@
       <c r="A856" t="s">
         <v>127</v>
       </c>
+      <c r="B856" t="s">
+        <v>104</v>
+      </c>
       <c r="C856" t="s">
         <v>8</v>
       </c>
@@ -18615,6 +19107,9 @@
       <c r="A857" t="s">
         <v>127</v>
       </c>
+      <c r="B857" t="s">
+        <v>104</v>
+      </c>
       <c r="C857" t="s">
         <v>8</v>
       </c>
@@ -18632,6 +19127,9 @@
       <c r="A858" t="s">
         <v>127</v>
       </c>
+      <c r="B858" t="s">
+        <v>104</v>
+      </c>
       <c r="C858" t="s">
         <v>8</v>
       </c>
@@ -18649,6 +19147,9 @@
       <c r="A859" t="s">
         <v>127</v>
       </c>
+      <c r="B859" t="s">
+        <v>104</v>
+      </c>
       <c r="C859" t="s">
         <v>8</v>
       </c>
@@ -18666,6 +19167,9 @@
       <c r="A860" t="s">
         <v>127</v>
       </c>
+      <c r="B860" t="s">
+        <v>104</v>
+      </c>
       <c r="C860" t="s">
         <v>8</v>
       </c>
@@ -18683,6 +19187,9 @@
       <c r="A861" t="s">
         <v>127</v>
       </c>
+      <c r="B861" t="s">
+        <v>104</v>
+      </c>
       <c r="C861" t="s">
         <v>8</v>
       </c>
@@ -18700,6 +19207,9 @@
       <c r="A862" t="s">
         <v>127</v>
       </c>
+      <c r="B862" t="s">
+        <v>105</v>
+      </c>
       <c r="C862" t="s">
         <v>8</v>
       </c>
@@ -18717,6 +19227,9 @@
       <c r="A863" t="s">
         <v>127</v>
       </c>
+      <c r="B863" t="s">
+        <v>105</v>
+      </c>
       <c r="C863" t="s">
         <v>8</v>
       </c>
@@ -18734,6 +19247,9 @@
       <c r="A864" t="s">
         <v>127</v>
       </c>
+      <c r="B864" t="s">
+        <v>105</v>
+      </c>
       <c r="C864" t="s">
         <v>8</v>
       </c>
@@ -18751,6 +19267,9 @@
       <c r="A865" t="s">
         <v>127</v>
       </c>
+      <c r="B865" t="s">
+        <v>105</v>
+      </c>
       <c r="C865" t="s">
         <v>8</v>
       </c>
@@ -18768,6 +19287,9 @@
       <c r="A866" t="s">
         <v>127</v>
       </c>
+      <c r="B866" t="s">
+        <v>105</v>
+      </c>
       <c r="C866" t="s">
         <v>8</v>
       </c>
@@ -18785,6 +19307,9 @@
       <c r="A867" t="s">
         <v>127</v>
       </c>
+      <c r="B867" t="s">
+        <v>105</v>
+      </c>
       <c r="C867" t="s">
         <v>8</v>
       </c>
@@ -18802,6 +19327,9 @@
       <c r="A868" t="s">
         <v>127</v>
       </c>
+      <c r="B868" t="s">
+        <v>105</v>
+      </c>
       <c r="C868" t="s">
         <v>8</v>
       </c>
@@ -18819,6 +19347,9 @@
       <c r="A869" t="s">
         <v>127</v>
       </c>
+      <c r="B869" t="s">
+        <v>105</v>
+      </c>
       <c r="C869" t="s">
         <v>8</v>
       </c>
@@ -18836,6 +19367,9 @@
       <c r="A870" t="s">
         <v>127</v>
       </c>
+      <c r="B870" t="s">
+        <v>105</v>
+      </c>
       <c r="C870" t="s">
         <v>8</v>
       </c>
@@ -18853,6 +19387,9 @@
       <c r="A871" t="s">
         <v>127</v>
       </c>
+      <c r="B871" t="s">
+        <v>105</v>
+      </c>
       <c r="C871" t="s">
         <v>8</v>
       </c>
@@ -18870,6 +19407,9 @@
       <c r="A872" t="s">
         <v>127</v>
       </c>
+      <c r="B872" t="s">
+        <v>105</v>
+      </c>
       <c r="C872" t="s">
         <v>8</v>
       </c>
@@ -18887,6 +19427,9 @@
       <c r="A873" t="s">
         <v>127</v>
       </c>
+      <c r="B873" t="s">
+        <v>105</v>
+      </c>
       <c r="C873" t="s">
         <v>8</v>
       </c>
@@ -18904,6 +19447,9 @@
       <c r="A874" t="s">
         <v>127</v>
       </c>
+      <c r="B874" t="s">
+        <v>105</v>
+      </c>
       <c r="C874" t="s">
         <v>8</v>
       </c>
@@ -18921,6 +19467,9 @@
       <c r="A875" t="s">
         <v>127</v>
       </c>
+      <c r="B875" t="s">
+        <v>106</v>
+      </c>
       <c r="C875" t="s">
         <v>8</v>
       </c>
@@ -18938,6 +19487,9 @@
       <c r="A876" t="s">
         <v>127</v>
       </c>
+      <c r="B876" t="s">
+        <v>106</v>
+      </c>
       <c r="C876" t="s">
         <v>8</v>
       </c>
@@ -18955,6 +19507,9 @@
       <c r="A877" t="s">
         <v>127</v>
       </c>
+      <c r="B877" t="s">
+        <v>106</v>
+      </c>
       <c r="C877" t="s">
         <v>8</v>
       </c>
@@ -18972,6 +19527,9 @@
       <c r="A878" t="s">
         <v>127</v>
       </c>
+      <c r="B878" t="s">
+        <v>106</v>
+      </c>
       <c r="C878" t="s">
         <v>8</v>
       </c>
@@ -18989,6 +19547,9 @@
       <c r="A879" t="s">
         <v>127</v>
       </c>
+      <c r="B879" t="s">
+        <v>106</v>
+      </c>
       <c r="C879" t="s">
         <v>8</v>
       </c>
@@ -19006,6 +19567,9 @@
       <c r="A880" t="s">
         <v>127</v>
       </c>
+      <c r="B880" t="s">
+        <v>106</v>
+      </c>
       <c r="C880" t="s">
         <v>8</v>
       </c>
@@ -19023,6 +19587,9 @@
       <c r="A881" t="s">
         <v>127</v>
       </c>
+      <c r="B881" t="s">
+        <v>106</v>
+      </c>
       <c r="C881" t="s">
         <v>8</v>
       </c>
@@ -19040,6 +19607,9 @@
       <c r="A882" t="s">
         <v>127</v>
       </c>
+      <c r="B882" t="s">
+        <v>106</v>
+      </c>
       <c r="C882" t="s">
         <v>8</v>
       </c>
@@ -19057,6 +19627,9 @@
       <c r="A883" t="s">
         <v>127</v>
       </c>
+      <c r="B883" t="s">
+        <v>106</v>
+      </c>
       <c r="C883" t="s">
         <v>8</v>
       </c>
@@ -19074,6 +19647,9 @@
       <c r="A884" t="s">
         <v>127</v>
       </c>
+      <c r="B884" t="s">
+        <v>106</v>
+      </c>
       <c r="C884" t="s">
         <v>8</v>
       </c>
@@ -19091,6 +19667,9 @@
       <c r="A885" t="s">
         <v>127</v>
       </c>
+      <c r="B885" t="s">
+        <v>106</v>
+      </c>
       <c r="C885" t="s">
         <v>8</v>
       </c>
@@ -19108,6 +19687,9 @@
       <c r="A886" t="s">
         <v>127</v>
       </c>
+      <c r="B886" t="s">
+        <v>106</v>
+      </c>
       <c r="C886" t="s">
         <v>8</v>
       </c>
@@ -19125,6 +19707,9 @@
       <c r="A887" t="s">
         <v>127</v>
       </c>
+      <c r="B887" t="s">
+        <v>106</v>
+      </c>
       <c r="C887" t="s">
         <v>8</v>
       </c>
@@ -19142,6 +19727,9 @@
       <c r="A888" t="s">
         <v>127</v>
       </c>
+      <c r="B888" t="s">
+        <v>107</v>
+      </c>
       <c r="C888" t="s">
         <v>8</v>
       </c>
@@ -19159,6 +19747,9 @@
       <c r="A889" t="s">
         <v>127</v>
       </c>
+      <c r="B889" t="s">
+        <v>107</v>
+      </c>
       <c r="C889" t="s">
         <v>8</v>
       </c>
@@ -19176,6 +19767,9 @@
       <c r="A890" t="s">
         <v>127</v>
       </c>
+      <c r="B890" t="s">
+        <v>107</v>
+      </c>
       <c r="C890" t="s">
         <v>8</v>
       </c>
@@ -19193,6 +19787,9 @@
       <c r="A891" t="s">
         <v>127</v>
       </c>
+      <c r="B891" t="s">
+        <v>107</v>
+      </c>
       <c r="C891" t="s">
         <v>8</v>
       </c>
@@ -19210,6 +19807,9 @@
       <c r="A892" t="s">
         <v>127</v>
       </c>
+      <c r="B892" t="s">
+        <v>107</v>
+      </c>
       <c r="C892" t="s">
         <v>8</v>
       </c>
@@ -19227,6 +19827,9 @@
       <c r="A893" t="s">
         <v>127</v>
       </c>
+      <c r="B893" t="s">
+        <v>107</v>
+      </c>
       <c r="C893" t="s">
         <v>8</v>
       </c>
@@ -19244,6 +19847,9 @@
       <c r="A894" t="s">
         <v>127</v>
       </c>
+      <c r="B894" t="s">
+        <v>107</v>
+      </c>
       <c r="C894" t="s">
         <v>8</v>
       </c>
@@ -19261,6 +19867,9 @@
       <c r="A895" t="s">
         <v>127</v>
       </c>
+      <c r="B895" t="s">
+        <v>107</v>
+      </c>
       <c r="C895" t="s">
         <v>8</v>
       </c>
@@ -19278,6 +19887,9 @@
       <c r="A896" t="s">
         <v>127</v>
       </c>
+      <c r="B896" t="s">
+        <v>107</v>
+      </c>
       <c r="C896" t="s">
         <v>8</v>
       </c>
@@ -19295,6 +19907,9 @@
       <c r="A897" t="s">
         <v>127</v>
       </c>
+      <c r="B897" t="s">
+        <v>107</v>
+      </c>
       <c r="C897" t="s">
         <v>8</v>
       </c>
@@ -19312,6 +19927,9 @@
       <c r="A898" t="s">
         <v>127</v>
       </c>
+      <c r="B898" t="s">
+        <v>107</v>
+      </c>
       <c r="C898" t="s">
         <v>8</v>
       </c>
@@ -19329,6 +19947,9 @@
       <c r="A899" t="s">
         <v>127</v>
       </c>
+      <c r="B899" t="s">
+        <v>107</v>
+      </c>
       <c r="C899" t="s">
         <v>8</v>
       </c>
@@ -19346,6 +19967,9 @@
       <c r="A900" t="s">
         <v>127</v>
       </c>
+      <c r="B900" t="s">
+        <v>107</v>
+      </c>
       <c r="C900" t="s">
         <v>8</v>
       </c>
@@ -19363,6 +19987,9 @@
       <c r="A901" t="s">
         <v>127</v>
       </c>
+      <c r="B901" t="s">
+        <v>108</v>
+      </c>
       <c r="C901" t="s">
         <v>8</v>
       </c>
@@ -19380,6 +20007,9 @@
       <c r="A902" t="s">
         <v>127</v>
       </c>
+      <c r="B902" t="s">
+        <v>108</v>
+      </c>
       <c r="C902" t="s">
         <v>8</v>
       </c>
@@ -19397,6 +20027,9 @@
       <c r="A903" t="s">
         <v>127</v>
       </c>
+      <c r="B903" t="s">
+        <v>108</v>
+      </c>
       <c r="C903" t="s">
         <v>8</v>
       </c>
@@ -19414,6 +20047,9 @@
       <c r="A904" t="s">
         <v>127</v>
       </c>
+      <c r="B904" t="s">
+        <v>108</v>
+      </c>
       <c r="C904" t="s">
         <v>8</v>
       </c>
@@ -19431,6 +20067,9 @@
       <c r="A905" t="s">
         <v>127</v>
       </c>
+      <c r="B905" t="s">
+        <v>108</v>
+      </c>
       <c r="C905" t="s">
         <v>8</v>
       </c>
@@ -19448,6 +20087,9 @@
       <c r="A906" t="s">
         <v>127</v>
       </c>
+      <c r="B906" t="s">
+        <v>108</v>
+      </c>
       <c r="C906" t="s">
         <v>8</v>
       </c>
@@ -19465,6 +20107,9 @@
       <c r="A907" t="s">
         <v>127</v>
       </c>
+      <c r="B907" t="s">
+        <v>108</v>
+      </c>
       <c r="C907" t="s">
         <v>8</v>
       </c>
@@ -19482,6 +20127,9 @@
       <c r="A908" t="s">
         <v>127</v>
       </c>
+      <c r="B908" t="s">
+        <v>108</v>
+      </c>
       <c r="C908" t="s">
         <v>8</v>
       </c>
@@ -19499,6 +20147,9 @@
       <c r="A909" t="s">
         <v>127</v>
       </c>
+      <c r="B909" t="s">
+        <v>108</v>
+      </c>
       <c r="C909" t="s">
         <v>8</v>
       </c>
@@ -19516,6 +20167,9 @@
       <c r="A910" t="s">
         <v>127</v>
       </c>
+      <c r="B910" t="s">
+        <v>108</v>
+      </c>
       <c r="C910" t="s">
         <v>8</v>
       </c>
@@ -19533,6 +20187,9 @@
       <c r="A911" t="s">
         <v>127</v>
       </c>
+      <c r="B911" t="s">
+        <v>108</v>
+      </c>
       <c r="C911" t="s">
         <v>8</v>
       </c>
@@ -19550,6 +20207,9 @@
       <c r="A912" t="s">
         <v>127</v>
       </c>
+      <c r="B912" t="s">
+        <v>108</v>
+      </c>
       <c r="C912" t="s">
         <v>8</v>
       </c>
@@ -19567,6 +20227,9 @@
       <c r="A913" t="s">
         <v>127</v>
       </c>
+      <c r="B913" t="s">
+        <v>108</v>
+      </c>
       <c r="C913" t="s">
         <v>8</v>
       </c>
@@ -19584,6 +20247,9 @@
       <c r="A914" t="s">
         <v>127</v>
       </c>
+      <c r="B914" t="s">
+        <v>109</v>
+      </c>
       <c r="C914" t="s">
         <v>8</v>
       </c>
@@ -19601,6 +20267,9 @@
       <c r="A915" t="s">
         <v>127</v>
       </c>
+      <c r="B915" t="s">
+        <v>109</v>
+      </c>
       <c r="C915" t="s">
         <v>8</v>
       </c>
@@ -19618,6 +20287,9 @@
       <c r="A916" t="s">
         <v>127</v>
       </c>
+      <c r="B916" t="s">
+        <v>109</v>
+      </c>
       <c r="C916" t="s">
         <v>8</v>
       </c>
@@ -19635,6 +20307,9 @@
       <c r="A917" t="s">
         <v>127</v>
       </c>
+      <c r="B917" t="s">
+        <v>109</v>
+      </c>
       <c r="C917" t="s">
         <v>8</v>
       </c>
@@ -19652,6 +20327,9 @@
       <c r="A918" t="s">
         <v>127</v>
       </c>
+      <c r="B918" t="s">
+        <v>109</v>
+      </c>
       <c r="C918" t="s">
         <v>8</v>
       </c>
@@ -19669,6 +20347,9 @@
       <c r="A919" t="s">
         <v>127</v>
       </c>
+      <c r="B919" t="s">
+        <v>109</v>
+      </c>
       <c r="C919" t="s">
         <v>8</v>
       </c>
@@ -19686,6 +20367,9 @@
       <c r="A920" t="s">
         <v>127</v>
       </c>
+      <c r="B920" t="s">
+        <v>109</v>
+      </c>
       <c r="C920" t="s">
         <v>8</v>
       </c>
@@ -19703,6 +20387,9 @@
       <c r="A921" t="s">
         <v>127</v>
       </c>
+      <c r="B921" t="s">
+        <v>109</v>
+      </c>
       <c r="C921" t="s">
         <v>8</v>
       </c>
@@ -19720,6 +20407,9 @@
       <c r="A922" t="s">
         <v>127</v>
       </c>
+      <c r="B922" t="s">
+        <v>109</v>
+      </c>
       <c r="C922" t="s">
         <v>8</v>
       </c>
@@ -19737,6 +20427,9 @@
       <c r="A923" t="s">
         <v>127</v>
       </c>
+      <c r="B923" t="s">
+        <v>109</v>
+      </c>
       <c r="C923" t="s">
         <v>8</v>
       </c>
@@ -19754,6 +20447,9 @@
       <c r="A924" t="s">
         <v>127</v>
       </c>
+      <c r="B924" t="s">
+        <v>109</v>
+      </c>
       <c r="C924" t="s">
         <v>8</v>
       </c>
@@ -19771,6 +20467,9 @@
       <c r="A925" t="s">
         <v>127</v>
       </c>
+      <c r="B925" t="s">
+        <v>109</v>
+      </c>
       <c r="C925" t="s">
         <v>8</v>
       </c>
@@ -19788,6 +20487,9 @@
       <c r="A926" t="s">
         <v>127</v>
       </c>
+      <c r="B926" t="s">
+        <v>109</v>
+      </c>
       <c r="C926" t="s">
         <v>8</v>
       </c>
@@ -19805,6 +20507,9 @@
       <c r="A927" t="s">
         <v>127</v>
       </c>
+      <c r="B927" t="s">
+        <v>110</v>
+      </c>
       <c r="C927" t="s">
         <v>8</v>
       </c>
@@ -19822,6 +20527,9 @@
       <c r="A928" t="s">
         <v>127</v>
       </c>
+      <c r="B928" t="s">
+        <v>110</v>
+      </c>
       <c r="C928" t="s">
         <v>8</v>
       </c>
@@ -19839,6 +20547,9 @@
       <c r="A929" t="s">
         <v>127</v>
       </c>
+      <c r="B929" t="s">
+        <v>110</v>
+      </c>
       <c r="C929" t="s">
         <v>8</v>
       </c>
@@ -19856,6 +20567,9 @@
       <c r="A930" t="s">
         <v>127</v>
       </c>
+      <c r="B930" t="s">
+        <v>110</v>
+      </c>
       <c r="C930" t="s">
         <v>8</v>
       </c>
@@ -19873,6 +20587,9 @@
       <c r="A931" t="s">
         <v>127</v>
       </c>
+      <c r="B931" t="s">
+        <v>110</v>
+      </c>
       <c r="C931" t="s">
         <v>8</v>
       </c>
@@ -19890,6 +20607,9 @@
       <c r="A932" t="s">
         <v>127</v>
       </c>
+      <c r="B932" t="s">
+        <v>110</v>
+      </c>
       <c r="C932" t="s">
         <v>8</v>
       </c>
@@ -19907,6 +20627,9 @@
       <c r="A933" t="s">
         <v>127</v>
       </c>
+      <c r="B933" t="s">
+        <v>110</v>
+      </c>
       <c r="C933" t="s">
         <v>8</v>
       </c>
@@ -19924,6 +20647,9 @@
       <c r="A934" t="s">
         <v>127</v>
       </c>
+      <c r="B934" t="s">
+        <v>110</v>
+      </c>
       <c r="C934" t="s">
         <v>8</v>
       </c>
@@ -19941,6 +20667,9 @@
       <c r="A935" t="s">
         <v>127</v>
       </c>
+      <c r="B935" t="s">
+        <v>110</v>
+      </c>
       <c r="C935" t="s">
         <v>8</v>
       </c>
@@ -19958,6 +20687,9 @@
       <c r="A936" t="s">
         <v>127</v>
       </c>
+      <c r="B936" t="s">
+        <v>110</v>
+      </c>
       <c r="C936" t="s">
         <v>8</v>
       </c>
@@ -19975,6 +20707,9 @@
       <c r="A937" t="s">
         <v>127</v>
       </c>
+      <c r="B937" t="s">
+        <v>110</v>
+      </c>
       <c r="C937" t="s">
         <v>8</v>
       </c>
@@ -19992,6 +20727,9 @@
       <c r="A938" t="s">
         <v>127</v>
       </c>
+      <c r="B938" t="s">
+        <v>110</v>
+      </c>
       <c r="C938" t="s">
         <v>8</v>
       </c>
@@ -20009,6 +20747,9 @@
       <c r="A939" t="s">
         <v>127</v>
       </c>
+      <c r="B939" t="s">
+        <v>110</v>
+      </c>
       <c r="C939" t="s">
         <v>8</v>
       </c>
@@ -20026,6 +20767,9 @@
       <c r="A940" t="s">
         <v>127</v>
       </c>
+      <c r="B940" t="s">
+        <v>111</v>
+      </c>
       <c r="C940" t="s">
         <v>8</v>
       </c>
@@ -20043,6 +20787,9 @@
       <c r="A941" t="s">
         <v>127</v>
       </c>
+      <c r="B941" t="s">
+        <v>111</v>
+      </c>
       <c r="C941" t="s">
         <v>8</v>
       </c>
@@ -20060,6 +20807,9 @@
       <c r="A942" t="s">
         <v>127</v>
       </c>
+      <c r="B942" t="s">
+        <v>111</v>
+      </c>
       <c r="C942" t="s">
         <v>8</v>
       </c>
@@ -20077,6 +20827,9 @@
       <c r="A943" t="s">
         <v>127</v>
       </c>
+      <c r="B943" t="s">
+        <v>111</v>
+      </c>
       <c r="C943" t="s">
         <v>8</v>
       </c>
@@ -20094,6 +20847,9 @@
       <c r="A944" t="s">
         <v>127</v>
       </c>
+      <c r="B944" t="s">
+        <v>111</v>
+      </c>
       <c r="C944" t="s">
         <v>8</v>
       </c>
@@ -20111,6 +20867,9 @@
       <c r="A945" t="s">
         <v>127</v>
       </c>
+      <c r="B945" t="s">
+        <v>111</v>
+      </c>
       <c r="C945" t="s">
         <v>8</v>
       </c>
@@ -20128,6 +20887,9 @@
       <c r="A946" t="s">
         <v>127</v>
       </c>
+      <c r="B946" t="s">
+        <v>111</v>
+      </c>
       <c r="C946" t="s">
         <v>8</v>
       </c>
@@ -20145,6 +20907,9 @@
       <c r="A947" t="s">
         <v>127</v>
       </c>
+      <c r="B947" t="s">
+        <v>111</v>
+      </c>
       <c r="C947" t="s">
         <v>8</v>
       </c>
@@ -20162,6 +20927,9 @@
       <c r="A948" t="s">
         <v>127</v>
       </c>
+      <c r="B948" t="s">
+        <v>111</v>
+      </c>
       <c r="C948" t="s">
         <v>8</v>
       </c>
@@ -20179,6 +20947,9 @@
       <c r="A949" t="s">
         <v>127</v>
       </c>
+      <c r="B949" t="s">
+        <v>111</v>
+      </c>
       <c r="C949" t="s">
         <v>8</v>
       </c>
@@ -20196,6 +20967,9 @@
       <c r="A950" t="s">
         <v>127</v>
       </c>
+      <c r="B950" t="s">
+        <v>111</v>
+      </c>
       <c r="C950" t="s">
         <v>8</v>
       </c>
@@ -20213,6 +20987,9 @@
       <c r="A951" t="s">
         <v>127</v>
       </c>
+      <c r="B951" t="s">
+        <v>111</v>
+      </c>
       <c r="C951" t="s">
         <v>8</v>
       </c>
@@ -20230,6 +21007,9 @@
       <c r="A952" t="s">
         <v>127</v>
       </c>
+      <c r="B952" t="s">
+        <v>111</v>
+      </c>
       <c r="C952" t="s">
         <v>8</v>
       </c>
@@ -20247,6 +21027,9 @@
       <c r="A953" t="s">
         <v>127</v>
       </c>
+      <c r="B953" t="s">
+        <v>112</v>
+      </c>
       <c r="C953" t="s">
         <v>8</v>
       </c>
@@ -20264,6 +21047,9 @@
       <c r="A954" t="s">
         <v>127</v>
       </c>
+      <c r="B954" t="s">
+        <v>112</v>
+      </c>
       <c r="C954" t="s">
         <v>8</v>
       </c>
@@ -20281,6 +21067,9 @@
       <c r="A955" t="s">
         <v>127</v>
       </c>
+      <c r="B955" t="s">
+        <v>112</v>
+      </c>
       <c r="C955" t="s">
         <v>8</v>
       </c>
@@ -20298,6 +21087,9 @@
       <c r="A956" t="s">
         <v>127</v>
       </c>
+      <c r="B956" t="s">
+        <v>112</v>
+      </c>
       <c r="C956" t="s">
         <v>8</v>
       </c>
@@ -20315,6 +21107,9 @@
       <c r="A957" t="s">
         <v>127</v>
       </c>
+      <c r="B957" t="s">
+        <v>112</v>
+      </c>
       <c r="C957" t="s">
         <v>8</v>
       </c>
@@ -20332,6 +21127,9 @@
       <c r="A958" t="s">
         <v>127</v>
       </c>
+      <c r="B958" t="s">
+        <v>112</v>
+      </c>
       <c r="C958" t="s">
         <v>8</v>
       </c>
@@ -20349,6 +21147,9 @@
       <c r="A959" t="s">
         <v>127</v>
       </c>
+      <c r="B959" t="s">
+        <v>112</v>
+      </c>
       <c r="C959" t="s">
         <v>8</v>
       </c>
@@ -20366,6 +21167,9 @@
       <c r="A960" t="s">
         <v>127</v>
       </c>
+      <c r="B960" t="s">
+        <v>112</v>
+      </c>
       <c r="C960" t="s">
         <v>8</v>
       </c>
@@ -20383,6 +21187,9 @@
       <c r="A961" t="s">
         <v>127</v>
       </c>
+      <c r="B961" t="s">
+        <v>112</v>
+      </c>
       <c r="C961" t="s">
         <v>8</v>
       </c>
@@ -20400,6 +21207,9 @@
       <c r="A962" t="s">
         <v>127</v>
       </c>
+      <c r="B962" t="s">
+        <v>112</v>
+      </c>
       <c r="C962" t="s">
         <v>8</v>
       </c>
@@ -20417,6 +21227,9 @@
       <c r="A963" t="s">
         <v>127</v>
       </c>
+      <c r="B963" t="s">
+        <v>112</v>
+      </c>
       <c r="C963" t="s">
         <v>8</v>
       </c>
@@ -20434,6 +21247,9 @@
       <c r="A964" t="s">
         <v>127</v>
       </c>
+      <c r="B964" t="s">
+        <v>112</v>
+      </c>
       <c r="C964" t="s">
         <v>8</v>
       </c>
@@ -20451,6 +21267,9 @@
       <c r="A965" t="s">
         <v>127</v>
       </c>
+      <c r="B965" t="s">
+        <v>112</v>
+      </c>
       <c r="C965" t="s">
         <v>8</v>
       </c>
@@ -20468,6 +21287,9 @@
       <c r="A966" t="s">
         <v>127</v>
       </c>
+      <c r="B966" t="s">
+        <v>125</v>
+      </c>
       <c r="C966" t="s">
         <v>8</v>
       </c>
@@ -20485,6 +21307,9 @@
       <c r="A967" t="s">
         <v>127</v>
       </c>
+      <c r="B967" t="s">
+        <v>125</v>
+      </c>
       <c r="C967" t="s">
         <v>8</v>
       </c>
@@ -20502,6 +21327,9 @@
       <c r="A968" t="s">
         <v>127</v>
       </c>
+      <c r="B968" t="s">
+        <v>125</v>
+      </c>
       <c r="C968" t="s">
         <v>8</v>
       </c>
@@ -20519,6 +21347,9 @@
       <c r="A969" t="s">
         <v>127</v>
       </c>
+      <c r="B969" t="s">
+        <v>125</v>
+      </c>
       <c r="C969" t="s">
         <v>8</v>
       </c>
@@ -20536,6 +21367,9 @@
       <c r="A970" t="s">
         <v>127</v>
       </c>
+      <c r="B970" t="s">
+        <v>125</v>
+      </c>
       <c r="C970" t="s">
         <v>8</v>
       </c>
@@ -20553,6 +21387,9 @@
       <c r="A971" t="s">
         <v>127</v>
       </c>
+      <c r="B971" t="s">
+        <v>125</v>
+      </c>
       <c r="C971" t="s">
         <v>8</v>
       </c>
@@ -20570,6 +21407,9 @@
       <c r="A972" t="s">
         <v>127</v>
       </c>
+      <c r="B972" t="s">
+        <v>125</v>
+      </c>
       <c r="C972" t="s">
         <v>8</v>
       </c>
@@ -20587,6 +21427,9 @@
       <c r="A973" t="s">
         <v>127</v>
       </c>
+      <c r="B973" t="s">
+        <v>125</v>
+      </c>
       <c r="C973" t="s">
         <v>8</v>
       </c>
@@ -20604,6 +21447,9 @@
       <c r="A974" t="s">
         <v>127</v>
       </c>
+      <c r="B974" t="s">
+        <v>125</v>
+      </c>
       <c r="C974" t="s">
         <v>8</v>
       </c>
@@ -20621,6 +21467,9 @@
       <c r="A975" t="s">
         <v>127</v>
       </c>
+      <c r="B975" t="s">
+        <v>125</v>
+      </c>
       <c r="C975" t="s">
         <v>8</v>
       </c>
@@ -20638,6 +21487,9 @@
       <c r="A976" t="s">
         <v>127</v>
       </c>
+      <c r="B976" t="s">
+        <v>125</v>
+      </c>
       <c r="C976" t="s">
         <v>8</v>
       </c>
@@ -20655,6 +21507,9 @@
       <c r="A977" t="s">
         <v>127</v>
       </c>
+      <c r="B977" t="s">
+        <v>125</v>
+      </c>
       <c r="C977" t="s">
         <v>8</v>
       </c>
@@ -20672,6 +21527,9 @@
       <c r="A978" t="s">
         <v>127</v>
       </c>
+      <c r="B978" t="s">
+        <v>125</v>
+      </c>
       <c r="C978" t="s">
         <v>8</v>
       </c>
@@ -20689,6 +21547,9 @@
       <c r="A979" t="s">
         <v>127</v>
       </c>
+      <c r="B979" t="s">
+        <v>124</v>
+      </c>
       <c r="C979" t="s">
         <v>8</v>
       </c>
@@ -20706,6 +21567,9 @@
       <c r="A980" t="s">
         <v>127</v>
       </c>
+      <c r="B980" t="s">
+        <v>124</v>
+      </c>
       <c r="C980" t="s">
         <v>8</v>
       </c>
@@ -20723,6 +21587,9 @@
       <c r="A981" t="s">
         <v>127</v>
       </c>
+      <c r="B981" t="s">
+        <v>124</v>
+      </c>
       <c r="C981" t="s">
         <v>8</v>
       </c>
@@ -20740,6 +21607,9 @@
       <c r="A982" t="s">
         <v>127</v>
       </c>
+      <c r="B982" t="s">
+        <v>124</v>
+      </c>
       <c r="C982" t="s">
         <v>8</v>
       </c>
@@ -20757,6 +21627,9 @@
       <c r="A983" t="s">
         <v>127</v>
       </c>
+      <c r="B983" t="s">
+        <v>124</v>
+      </c>
       <c r="C983" t="s">
         <v>8</v>
       </c>
@@ -20774,6 +21647,9 @@
       <c r="A984" t="s">
         <v>127</v>
       </c>
+      <c r="B984" t="s">
+        <v>124</v>
+      </c>
       <c r="C984" t="s">
         <v>8</v>
       </c>
@@ -20791,6 +21667,9 @@
       <c r="A985" t="s">
         <v>127</v>
       </c>
+      <c r="B985" t="s">
+        <v>124</v>
+      </c>
       <c r="C985" t="s">
         <v>8</v>
       </c>
@@ -20808,6 +21687,9 @@
       <c r="A986" t="s">
         <v>127</v>
       </c>
+      <c r="B986" t="s">
+        <v>124</v>
+      </c>
       <c r="C986" t="s">
         <v>8</v>
       </c>
@@ -20825,6 +21707,9 @@
       <c r="A987" t="s">
         <v>127</v>
       </c>
+      <c r="B987" t="s">
+        <v>124</v>
+      </c>
       <c r="C987" t="s">
         <v>8</v>
       </c>
@@ -20842,6 +21727,9 @@
       <c r="A988" t="s">
         <v>127</v>
       </c>
+      <c r="B988" t="s">
+        <v>124</v>
+      </c>
       <c r="C988" t="s">
         <v>8</v>
       </c>
@@ -20859,6 +21747,9 @@
       <c r="A989" t="s">
         <v>127</v>
       </c>
+      <c r="B989" t="s">
+        <v>124</v>
+      </c>
       <c r="C989" t="s">
         <v>8</v>
       </c>
@@ -20876,6 +21767,9 @@
       <c r="A990" t="s">
         <v>127</v>
       </c>
+      <c r="B990" t="s">
+        <v>124</v>
+      </c>
       <c r="C990" t="s">
         <v>8</v>
       </c>
@@ -20893,6 +21787,9 @@
       <c r="A991" t="s">
         <v>127</v>
       </c>
+      <c r="B991" t="s">
+        <v>124</v>
+      </c>
       <c r="C991" t="s">
         <v>8</v>
       </c>
@@ -20910,6 +21807,9 @@
       <c r="A992" t="s">
         <v>127</v>
       </c>
+      <c r="B992" t="s">
+        <v>122</v>
+      </c>
       <c r="C992" t="s">
         <v>8</v>
       </c>
@@ -20927,6 +21827,9 @@
       <c r="A993" t="s">
         <v>127</v>
       </c>
+      <c r="B993" t="s">
+        <v>122</v>
+      </c>
       <c r="C993" t="s">
         <v>8</v>
       </c>
@@ -20944,6 +21847,9 @@
       <c r="A994" t="s">
         <v>127</v>
       </c>
+      <c r="B994" t="s">
+        <v>122</v>
+      </c>
       <c r="C994" t="s">
         <v>8</v>
       </c>
@@ -20961,6 +21867,9 @@
       <c r="A995" t="s">
         <v>127</v>
       </c>
+      <c r="B995" t="s">
+        <v>122</v>
+      </c>
       <c r="C995" t="s">
         <v>8</v>
       </c>
@@ -20978,6 +21887,9 @@
       <c r="A996" t="s">
         <v>127</v>
       </c>
+      <c r="B996" t="s">
+        <v>122</v>
+      </c>
       <c r="C996" t="s">
         <v>8</v>
       </c>
@@ -20995,6 +21907,9 @@
       <c r="A997" t="s">
         <v>127</v>
       </c>
+      <c r="B997" t="s">
+        <v>122</v>
+      </c>
       <c r="C997" t="s">
         <v>8</v>
       </c>
@@ -21012,6 +21927,9 @@
       <c r="A998" t="s">
         <v>127</v>
       </c>
+      <c r="B998" t="s">
+        <v>122</v>
+      </c>
       <c r="C998" t="s">
         <v>8</v>
       </c>
@@ -21029,6 +21947,9 @@
       <c r="A999" t="s">
         <v>127</v>
       </c>
+      <c r="B999" t="s">
+        <v>122</v>
+      </c>
       <c r="C999" t="s">
         <v>8</v>
       </c>
@@ -21046,6 +21967,9 @@
       <c r="A1000" t="s">
         <v>127</v>
       </c>
+      <c r="B1000" t="s">
+        <v>122</v>
+      </c>
       <c r="C1000" t="s">
         <v>8</v>
       </c>
@@ -21063,6 +21987,9 @@
       <c r="A1001" t="s">
         <v>127</v>
       </c>
+      <c r="B1001" t="s">
+        <v>122</v>
+      </c>
       <c r="C1001" t="s">
         <v>8</v>
       </c>
@@ -21080,6 +22007,9 @@
       <c r="A1002" t="s">
         <v>127</v>
       </c>
+      <c r="B1002" t="s">
+        <v>122</v>
+      </c>
       <c r="C1002" t="s">
         <v>8</v>
       </c>
@@ -21097,6 +22027,9 @@
       <c r="A1003" t="s">
         <v>127</v>
       </c>
+      <c r="B1003" t="s">
+        <v>122</v>
+      </c>
       <c r="C1003" t="s">
         <v>8</v>
       </c>
@@ -21114,6 +22047,9 @@
       <c r="A1004" t="s">
         <v>127</v>
       </c>
+      <c r="B1004" t="s">
+        <v>122</v>
+      </c>
       <c r="C1004" t="s">
         <v>8</v>
       </c>
@@ -21131,6 +22067,9 @@
       <c r="A1005" t="s">
         <v>127</v>
       </c>
+      <c r="B1005" t="s">
+        <v>113</v>
+      </c>
       <c r="C1005" t="s">
         <v>8</v>
       </c>
@@ -21148,6 +22087,9 @@
       <c r="A1006" t="s">
         <v>127</v>
       </c>
+      <c r="B1006" t="s">
+        <v>113</v>
+      </c>
       <c r="C1006" t="s">
         <v>8</v>
       </c>
@@ -21165,6 +22107,9 @@
       <c r="A1007" t="s">
         <v>127</v>
       </c>
+      <c r="B1007" t="s">
+        <v>113</v>
+      </c>
       <c r="C1007" t="s">
         <v>8</v>
       </c>
@@ -21182,6 +22127,9 @@
       <c r="A1008" t="s">
         <v>127</v>
       </c>
+      <c r="B1008" t="s">
+        <v>113</v>
+      </c>
       <c r="C1008" t="s">
         <v>8</v>
       </c>
@@ -21199,6 +22147,9 @@
       <c r="A1009" t="s">
         <v>127</v>
       </c>
+      <c r="B1009" t="s">
+        <v>113</v>
+      </c>
       <c r="C1009" t="s">
         <v>8</v>
       </c>
@@ -21216,6 +22167,9 @@
       <c r="A1010" t="s">
         <v>127</v>
       </c>
+      <c r="B1010" t="s">
+        <v>113</v>
+      </c>
       <c r="C1010" t="s">
         <v>8</v>
       </c>
@@ -21233,6 +22187,9 @@
       <c r="A1011" t="s">
         <v>127</v>
       </c>
+      <c r="B1011" t="s">
+        <v>113</v>
+      </c>
       <c r="C1011" t="s">
         <v>8</v>
       </c>
@@ -21250,6 +22207,9 @@
       <c r="A1012" t="s">
         <v>127</v>
       </c>
+      <c r="B1012" t="s">
+        <v>113</v>
+      </c>
       <c r="C1012" t="s">
         <v>8</v>
       </c>
@@ -21267,6 +22227,9 @@
       <c r="A1013" t="s">
         <v>127</v>
       </c>
+      <c r="B1013" t="s">
+        <v>113</v>
+      </c>
       <c r="C1013" t="s">
         <v>8</v>
       </c>
@@ -21284,6 +22247,9 @@
       <c r="A1014" t="s">
         <v>127</v>
       </c>
+      <c r="B1014" t="s">
+        <v>113</v>
+      </c>
       <c r="C1014" t="s">
         <v>8</v>
       </c>
@@ -21301,6 +22267,9 @@
       <c r="A1015" t="s">
         <v>127</v>
       </c>
+      <c r="B1015" t="s">
+        <v>113</v>
+      </c>
       <c r="C1015" t="s">
         <v>8</v>
       </c>
@@ -21318,6 +22287,9 @@
       <c r="A1016" t="s">
         <v>127</v>
       </c>
+      <c r="B1016" t="s">
+        <v>113</v>
+      </c>
       <c r="C1016" t="s">
         <v>8</v>
       </c>
@@ -21335,6 +22307,9 @@
       <c r="A1017" t="s">
         <v>127</v>
       </c>
+      <c r="B1017" t="s">
+        <v>113</v>
+      </c>
       <c r="C1017" t="s">
         <v>8</v>
       </c>
@@ -21352,6 +22327,9 @@
       <c r="A1018" t="s">
         <v>127</v>
       </c>
+      <c r="B1018" t="s">
+        <v>123</v>
+      </c>
       <c r="C1018" t="s">
         <v>8</v>
       </c>
@@ -21369,6 +22347,9 @@
       <c r="A1019" t="s">
         <v>127</v>
       </c>
+      <c r="B1019" t="s">
+        <v>123</v>
+      </c>
       <c r="C1019" t="s">
         <v>8</v>
       </c>
@@ -21386,6 +22367,9 @@
       <c r="A1020" t="s">
         <v>127</v>
       </c>
+      <c r="B1020" t="s">
+        <v>123</v>
+      </c>
       <c r="C1020" t="s">
         <v>8</v>
       </c>
@@ -21403,6 +22387,9 @@
       <c r="A1021" t="s">
         <v>127</v>
       </c>
+      <c r="B1021" t="s">
+        <v>123</v>
+      </c>
       <c r="C1021" t="s">
         <v>8</v>
       </c>
@@ -21420,6 +22407,9 @@
       <c r="A1022" t="s">
         <v>127</v>
       </c>
+      <c r="B1022" t="s">
+        <v>123</v>
+      </c>
       <c r="C1022" t="s">
         <v>8</v>
       </c>
@@ -21437,6 +22427,9 @@
       <c r="A1023" t="s">
         <v>127</v>
       </c>
+      <c r="B1023" t="s">
+        <v>123</v>
+      </c>
       <c r="C1023" t="s">
         <v>8</v>
       </c>
@@ -21454,6 +22447,9 @@
       <c r="A1024" t="s">
         <v>127</v>
       </c>
+      <c r="B1024" t="s">
+        <v>123</v>
+      </c>
       <c r="C1024" t="s">
         <v>8</v>
       </c>
@@ -21471,6 +22467,9 @@
       <c r="A1025" t="s">
         <v>127</v>
       </c>
+      <c r="B1025" t="s">
+        <v>123</v>
+      </c>
       <c r="C1025" t="s">
         <v>8</v>
       </c>
@@ -21488,6 +22487,9 @@
       <c r="A1026" t="s">
         <v>127</v>
       </c>
+      <c r="B1026" t="s">
+        <v>123</v>
+      </c>
       <c r="C1026" t="s">
         <v>8</v>
       </c>
@@ -21505,6 +22507,9 @@
       <c r="A1027" t="s">
         <v>127</v>
       </c>
+      <c r="B1027" t="s">
+        <v>123</v>
+      </c>
       <c r="C1027" t="s">
         <v>8</v>
       </c>
@@ -21522,6 +22527,9 @@
       <c r="A1028" t="s">
         <v>127</v>
       </c>
+      <c r="B1028" t="s">
+        <v>123</v>
+      </c>
       <c r="C1028" t="s">
         <v>8</v>
       </c>
@@ -21539,6 +22547,9 @@
       <c r="A1029" t="s">
         <v>127</v>
       </c>
+      <c r="B1029" t="s">
+        <v>123</v>
+      </c>
       <c r="C1029" t="s">
         <v>8</v>
       </c>
@@ -21556,6 +22567,9 @@
       <c r="A1030" t="s">
         <v>127</v>
       </c>
+      <c r="B1030" t="s">
+        <v>123</v>
+      </c>
       <c r="C1030" t="s">
         <v>8</v>
       </c>
@@ -21573,6 +22587,9 @@
       <c r="A1031" t="s">
         <v>127</v>
       </c>
+      <c r="B1031" t="s">
+        <v>121</v>
+      </c>
       <c r="C1031" t="s">
         <v>8</v>
       </c>
@@ -21590,6 +22607,9 @@
       <c r="A1032" t="s">
         <v>127</v>
       </c>
+      <c r="B1032" t="s">
+        <v>121</v>
+      </c>
       <c r="C1032" t="s">
         <v>8</v>
       </c>
@@ -21607,6 +22627,9 @@
       <c r="A1033" t="s">
         <v>127</v>
       </c>
+      <c r="B1033" t="s">
+        <v>121</v>
+      </c>
       <c r="C1033" t="s">
         <v>8</v>
       </c>
@@ -21624,6 +22647,9 @@
       <c r="A1034" t="s">
         <v>127</v>
       </c>
+      <c r="B1034" t="s">
+        <v>121</v>
+      </c>
       <c r="C1034" t="s">
         <v>8</v>
       </c>
@@ -21641,6 +22667,9 @@
       <c r="A1035" t="s">
         <v>127</v>
       </c>
+      <c r="B1035" t="s">
+        <v>121</v>
+      </c>
       <c r="C1035" t="s">
         <v>8</v>
       </c>
@@ -21658,6 +22687,9 @@
       <c r="A1036" t="s">
         <v>127</v>
       </c>
+      <c r="B1036" t="s">
+        <v>121</v>
+      </c>
       <c r="C1036" t="s">
         <v>8</v>
       </c>
@@ -21675,6 +22707,9 @@
       <c r="A1037" t="s">
         <v>127</v>
       </c>
+      <c r="B1037" t="s">
+        <v>121</v>
+      </c>
       <c r="C1037" t="s">
         <v>8</v>
       </c>
@@ -21692,6 +22727,9 @@
       <c r="A1038" t="s">
         <v>127</v>
       </c>
+      <c r="B1038" t="s">
+        <v>121</v>
+      </c>
       <c r="C1038" t="s">
         <v>8</v>
       </c>
@@ -21709,6 +22747,9 @@
       <c r="A1039" t="s">
         <v>127</v>
       </c>
+      <c r="B1039" t="s">
+        <v>121</v>
+      </c>
       <c r="C1039" t="s">
         <v>8</v>
       </c>
@@ -21726,6 +22767,9 @@
       <c r="A1040" t="s">
         <v>127</v>
       </c>
+      <c r="B1040" t="s">
+        <v>121</v>
+      </c>
       <c r="C1040" t="s">
         <v>8</v>
       </c>
@@ -21743,6 +22787,9 @@
       <c r="A1041" t="s">
         <v>127</v>
       </c>
+      <c r="B1041" t="s">
+        <v>121</v>
+      </c>
       <c r="C1041" t="s">
         <v>8</v>
       </c>
@@ -21760,6 +22807,9 @@
       <c r="A1042" t="s">
         <v>127</v>
       </c>
+      <c r="B1042" t="s">
+        <v>121</v>
+      </c>
       <c r="C1042" t="s">
         <v>8</v>
       </c>
@@ -21777,6 +22827,9 @@
       <c r="A1043" t="s">
         <v>127</v>
       </c>
+      <c r="B1043" t="s">
+        <v>121</v>
+      </c>
       <c r="C1043" t="s">
         <v>8</v>
       </c>
@@ -21794,6 +22847,9 @@
       <c r="A1044" t="s">
         <v>127</v>
       </c>
+      <c r="B1044" t="s">
+        <v>119</v>
+      </c>
       <c r="C1044" t="s">
         <v>8</v>
       </c>
@@ -21811,6 +22867,9 @@
       <c r="A1045" t="s">
         <v>127</v>
       </c>
+      <c r="B1045" t="s">
+        <v>119</v>
+      </c>
       <c r="C1045" t="s">
         <v>8</v>
       </c>
@@ -21828,6 +22887,9 @@
       <c r="A1046" t="s">
         <v>127</v>
       </c>
+      <c r="B1046" t="s">
+        <v>119</v>
+      </c>
       <c r="C1046" t="s">
         <v>8</v>
       </c>
@@ -21845,6 +22907,9 @@
       <c r="A1047" t="s">
         <v>127</v>
       </c>
+      <c r="B1047" t="s">
+        <v>119</v>
+      </c>
       <c r="C1047" t="s">
         <v>8</v>
       </c>
@@ -21862,6 +22927,9 @@
       <c r="A1048" t="s">
         <v>127</v>
       </c>
+      <c r="B1048" t="s">
+        <v>119</v>
+      </c>
       <c r="C1048" t="s">
         <v>8</v>
       </c>
@@ -21879,6 +22947,9 @@
       <c r="A1049" t="s">
         <v>127</v>
       </c>
+      <c r="B1049" t="s">
+        <v>119</v>
+      </c>
       <c r="C1049" t="s">
         <v>8</v>
       </c>
@@ -21896,6 +22967,9 @@
       <c r="A1050" t="s">
         <v>127</v>
       </c>
+      <c r="B1050" t="s">
+        <v>119</v>
+      </c>
       <c r="C1050" t="s">
         <v>8</v>
       </c>
@@ -21913,6 +22987,9 @@
       <c r="A1051" t="s">
         <v>127</v>
       </c>
+      <c r="B1051" t="s">
+        <v>119</v>
+      </c>
       <c r="C1051" t="s">
         <v>8</v>
       </c>
@@ -21930,6 +23007,9 @@
       <c r="A1052" t="s">
         <v>127</v>
       </c>
+      <c r="B1052" t="s">
+        <v>119</v>
+      </c>
       <c r="C1052" t="s">
         <v>8</v>
       </c>
@@ -21947,6 +23027,9 @@
       <c r="A1053" t="s">
         <v>127</v>
       </c>
+      <c r="B1053" t="s">
+        <v>119</v>
+      </c>
       <c r="C1053" t="s">
         <v>8</v>
       </c>
@@ -21964,6 +23047,9 @@
       <c r="A1054" t="s">
         <v>127</v>
       </c>
+      <c r="B1054" t="s">
+        <v>119</v>
+      </c>
       <c r="C1054" t="s">
         <v>8</v>
       </c>
@@ -21981,6 +23067,9 @@
       <c r="A1055" t="s">
         <v>127</v>
       </c>
+      <c r="B1055" t="s">
+        <v>119</v>
+      </c>
       <c r="C1055" t="s">
         <v>8</v>
       </c>
@@ -21998,6 +23087,9 @@
       <c r="A1056" t="s">
         <v>127</v>
       </c>
+      <c r="B1056" t="s">
+        <v>119</v>
+      </c>
       <c r="C1056" t="s">
         <v>8</v>
       </c>
@@ -22015,6 +23107,9 @@
       <c r="A1057" t="s">
         <v>127</v>
       </c>
+      <c r="B1057" t="s">
+        <v>120</v>
+      </c>
       <c r="C1057" t="s">
         <v>8</v>
       </c>
@@ -22032,6 +23127,9 @@
       <c r="A1058" t="s">
         <v>127</v>
       </c>
+      <c r="B1058" t="s">
+        <v>120</v>
+      </c>
       <c r="C1058" t="s">
         <v>8</v>
       </c>
@@ -22049,6 +23147,9 @@
       <c r="A1059" t="s">
         <v>127</v>
       </c>
+      <c r="B1059" t="s">
+        <v>120</v>
+      </c>
       <c r="C1059" t="s">
         <v>8</v>
       </c>
@@ -22066,6 +23167,9 @@
       <c r="A1060" t="s">
         <v>127</v>
       </c>
+      <c r="B1060" t="s">
+        <v>120</v>
+      </c>
       <c r="C1060" t="s">
         <v>8</v>
       </c>
@@ -22083,6 +23187,9 @@
       <c r="A1061" t="s">
         <v>127</v>
       </c>
+      <c r="B1061" t="s">
+        <v>120</v>
+      </c>
       <c r="C1061" t="s">
         <v>8</v>
       </c>
@@ -22100,6 +23207,9 @@
       <c r="A1062" t="s">
         <v>127</v>
       </c>
+      <c r="B1062" t="s">
+        <v>120</v>
+      </c>
       <c r="C1062" t="s">
         <v>8</v>
       </c>
@@ -22117,6 +23227,9 @@
       <c r="A1063" t="s">
         <v>127</v>
       </c>
+      <c r="B1063" t="s">
+        <v>120</v>
+      </c>
       <c r="C1063" t="s">
         <v>8</v>
       </c>
@@ -22134,6 +23247,9 @@
       <c r="A1064" t="s">
         <v>127</v>
       </c>
+      <c r="B1064" t="s">
+        <v>120</v>
+      </c>
       <c r="C1064" t="s">
         <v>8</v>
       </c>
@@ -22151,6 +23267,9 @@
       <c r="A1065" t="s">
         <v>127</v>
       </c>
+      <c r="B1065" t="s">
+        <v>120</v>
+      </c>
       <c r="C1065" t="s">
         <v>8</v>
       </c>
@@ -22168,6 +23287,9 @@
       <c r="A1066" t="s">
         <v>127</v>
       </c>
+      <c r="B1066" t="s">
+        <v>120</v>
+      </c>
       <c r="C1066" t="s">
         <v>8</v>
       </c>
@@ -22185,6 +23307,9 @@
       <c r="A1067" t="s">
         <v>127</v>
       </c>
+      <c r="B1067" t="s">
+        <v>120</v>
+      </c>
       <c r="C1067" t="s">
         <v>8</v>
       </c>
@@ -22202,6 +23327,9 @@
       <c r="A1068" t="s">
         <v>127</v>
       </c>
+      <c r="B1068" t="s">
+        <v>120</v>
+      </c>
       <c r="C1068" t="s">
         <v>8</v>
       </c>
@@ -22219,6 +23347,9 @@
       <c r="A1069" t="s">
         <v>127</v>
       </c>
+      <c r="B1069" t="s">
+        <v>120</v>
+      </c>
       <c r="C1069" t="s">
         <v>8</v>
       </c>
@@ -22236,6 +23367,9 @@
       <c r="A1070" t="s">
         <v>127</v>
       </c>
+      <c r="B1070" t="s">
+        <v>114</v>
+      </c>
       <c r="C1070" t="s">
         <v>8</v>
       </c>
@@ -22253,6 +23387,9 @@
       <c r="A1071" t="s">
         <v>127</v>
       </c>
+      <c r="B1071" t="s">
+        <v>114</v>
+      </c>
       <c r="C1071" t="s">
         <v>8</v>
       </c>
@@ -22270,6 +23407,9 @@
       <c r="A1072" t="s">
         <v>127</v>
       </c>
+      <c r="B1072" t="s">
+        <v>114</v>
+      </c>
       <c r="C1072" t="s">
         <v>8</v>
       </c>
@@ -22287,6 +23427,9 @@
       <c r="A1073" t="s">
         <v>127</v>
       </c>
+      <c r="B1073" t="s">
+        <v>114</v>
+      </c>
       <c r="C1073" t="s">
         <v>8</v>
       </c>
@@ -22304,6 +23447,9 @@
       <c r="A1074" t="s">
         <v>127</v>
       </c>
+      <c r="B1074" t="s">
+        <v>114</v>
+      </c>
       <c r="C1074" t="s">
         <v>8</v>
       </c>
@@ -22321,6 +23467,9 @@
       <c r="A1075" t="s">
         <v>127</v>
       </c>
+      <c r="B1075" t="s">
+        <v>114</v>
+      </c>
       <c r="C1075" t="s">
         <v>8</v>
       </c>
@@ -22338,6 +23487,9 @@
       <c r="A1076" t="s">
         <v>127</v>
       </c>
+      <c r="B1076" t="s">
+        <v>114</v>
+      </c>
       <c r="C1076" t="s">
         <v>8</v>
       </c>
@@ -22355,6 +23507,9 @@
       <c r="A1077" t="s">
         <v>127</v>
       </c>
+      <c r="B1077" t="s">
+        <v>114</v>
+      </c>
       <c r="C1077" t="s">
         <v>8</v>
       </c>
@@ -22372,6 +23527,9 @@
       <c r="A1078" t="s">
         <v>127</v>
       </c>
+      <c r="B1078" t="s">
+        <v>114</v>
+      </c>
       <c r="C1078" t="s">
         <v>8</v>
       </c>
@@ -22389,6 +23547,9 @@
       <c r="A1079" t="s">
         <v>127</v>
       </c>
+      <c r="B1079" t="s">
+        <v>114</v>
+      </c>
       <c r="C1079" t="s">
         <v>8</v>
       </c>
@@ -22406,6 +23567,9 @@
       <c r="A1080" t="s">
         <v>127</v>
       </c>
+      <c r="B1080" t="s">
+        <v>114</v>
+      </c>
       <c r="C1080" t="s">
         <v>8</v>
       </c>
@@ -22423,6 +23587,9 @@
       <c r="A1081" t="s">
         <v>127</v>
       </c>
+      <c r="B1081" t="s">
+        <v>114</v>
+      </c>
       <c r="C1081" t="s">
         <v>8</v>
       </c>
@@ -22440,6 +23607,9 @@
       <c r="A1082" t="s">
         <v>127</v>
       </c>
+      <c r="B1082" t="s">
+        <v>114</v>
+      </c>
       <c r="C1082" t="s">
         <v>8</v>
       </c>
@@ -22457,6 +23627,9 @@
       <c r="A1083" t="s">
         <v>127</v>
       </c>
+      <c r="B1083" t="s">
+        <v>115</v>
+      </c>
       <c r="C1083" t="s">
         <v>8</v>
       </c>
@@ -22474,6 +23647,9 @@
       <c r="A1084" t="s">
         <v>127</v>
       </c>
+      <c r="B1084" t="s">
+        <v>115</v>
+      </c>
       <c r="C1084" t="s">
         <v>8</v>
       </c>
@@ -22491,6 +23667,9 @@
       <c r="A1085" t="s">
         <v>127</v>
       </c>
+      <c r="B1085" t="s">
+        <v>115</v>
+      </c>
       <c r="C1085" t="s">
         <v>8</v>
       </c>
@@ -22508,6 +23687,9 @@
       <c r="A1086" t="s">
         <v>127</v>
       </c>
+      <c r="B1086" t="s">
+        <v>115</v>
+      </c>
       <c r="C1086" t="s">
         <v>8</v>
       </c>
@@ -22525,6 +23707,9 @@
       <c r="A1087" t="s">
         <v>127</v>
       </c>
+      <c r="B1087" t="s">
+        <v>115</v>
+      </c>
       <c r="C1087" t="s">
         <v>8</v>
       </c>
@@ -22542,6 +23727,9 @@
       <c r="A1088" t="s">
         <v>127</v>
       </c>
+      <c r="B1088" t="s">
+        <v>115</v>
+      </c>
       <c r="C1088" t="s">
         <v>8</v>
       </c>
@@ -22559,6 +23747,9 @@
       <c r="A1089" t="s">
         <v>127</v>
       </c>
+      <c r="B1089" t="s">
+        <v>115</v>
+      </c>
       <c r="C1089" t="s">
         <v>8</v>
       </c>
@@ -22576,6 +23767,9 @@
       <c r="A1090" t="s">
         <v>127</v>
       </c>
+      <c r="B1090" t="s">
+        <v>115</v>
+      </c>
       <c r="C1090" t="s">
         <v>8</v>
       </c>
@@ -22593,6 +23787,9 @@
       <c r="A1091" t="s">
         <v>127</v>
       </c>
+      <c r="B1091" t="s">
+        <v>115</v>
+      </c>
       <c r="C1091" t="s">
         <v>8</v>
       </c>
@@ -22610,6 +23807,9 @@
       <c r="A1092" t="s">
         <v>127</v>
       </c>
+      <c r="B1092" t="s">
+        <v>115</v>
+      </c>
       <c r="C1092" t="s">
         <v>8</v>
       </c>
@@ -22627,6 +23827,9 @@
       <c r="A1093" t="s">
         <v>127</v>
       </c>
+      <c r="B1093" t="s">
+        <v>115</v>
+      </c>
       <c r="C1093" t="s">
         <v>8</v>
       </c>
@@ -22644,6 +23847,9 @@
       <c r="A1094" t="s">
         <v>127</v>
       </c>
+      <c r="B1094" t="s">
+        <v>115</v>
+      </c>
       <c r="C1094" t="s">
         <v>8</v>
       </c>
@@ -22661,6 +23867,9 @@
       <c r="A1095" t="s">
         <v>127</v>
       </c>
+      <c r="B1095" t="s">
+        <v>115</v>
+      </c>
       <c r="C1095" t="s">
         <v>8</v>
       </c>
@@ -22678,6 +23887,9 @@
       <c r="A1096" t="s">
         <v>127</v>
       </c>
+      <c r="B1096" t="s">
+        <v>116</v>
+      </c>
       <c r="C1096" t="s">
         <v>8</v>
       </c>
@@ -22695,6 +23907,9 @@
       <c r="A1097" t="s">
         <v>127</v>
       </c>
+      <c r="B1097" t="s">
+        <v>116</v>
+      </c>
       <c r="C1097" t="s">
         <v>8</v>
       </c>
@@ -22712,6 +23927,9 @@
       <c r="A1098" t="s">
         <v>127</v>
       </c>
+      <c r="B1098" t="s">
+        <v>116</v>
+      </c>
       <c r="C1098" t="s">
         <v>8</v>
       </c>
@@ -22729,6 +23947,9 @@
       <c r="A1099" t="s">
         <v>127</v>
       </c>
+      <c r="B1099" t="s">
+        <v>116</v>
+      </c>
       <c r="C1099" t="s">
         <v>8</v>
       </c>
@@ -22746,6 +23967,9 @@
       <c r="A1100" t="s">
         <v>127</v>
       </c>
+      <c r="B1100" t="s">
+        <v>116</v>
+      </c>
       <c r="C1100" t="s">
         <v>8</v>
       </c>
@@ -22763,6 +23987,9 @@
       <c r="A1101" t="s">
         <v>127</v>
       </c>
+      <c r="B1101" t="s">
+        <v>116</v>
+      </c>
       <c r="C1101" t="s">
         <v>8</v>
       </c>
@@ -22780,6 +24007,9 @@
       <c r="A1102" t="s">
         <v>127</v>
       </c>
+      <c r="B1102" t="s">
+        <v>116</v>
+      </c>
       <c r="C1102" t="s">
         <v>8</v>
       </c>
@@ -22797,6 +24027,9 @@
       <c r="A1103" t="s">
         <v>127</v>
       </c>
+      <c r="B1103" t="s">
+        <v>116</v>
+      </c>
       <c r="C1103" t="s">
         <v>8</v>
       </c>
@@ -22814,6 +24047,9 @@
       <c r="A1104" t="s">
         <v>127</v>
       </c>
+      <c r="B1104" t="s">
+        <v>116</v>
+      </c>
       <c r="C1104" t="s">
         <v>8</v>
       </c>
@@ -22831,6 +24067,9 @@
       <c r="A1105" t="s">
         <v>127</v>
       </c>
+      <c r="B1105" t="s">
+        <v>116</v>
+      </c>
       <c r="C1105" t="s">
         <v>8</v>
       </c>
@@ -22848,6 +24087,9 @@
       <c r="A1106" t="s">
         <v>127</v>
       </c>
+      <c r="B1106" t="s">
+        <v>116</v>
+      </c>
       <c r="C1106" t="s">
         <v>8</v>
       </c>
@@ -22865,6 +24107,9 @@
       <c r="A1107" t="s">
         <v>127</v>
       </c>
+      <c r="B1107" t="s">
+        <v>116</v>
+      </c>
       <c r="C1107" t="s">
         <v>8</v>
       </c>
@@ -22882,6 +24127,9 @@
       <c r="A1108" t="s">
         <v>127</v>
       </c>
+      <c r="B1108" t="s">
+        <v>116</v>
+      </c>
       <c r="C1108" t="s">
         <v>8</v>
       </c>
@@ -22899,6 +24147,9 @@
       <c r="A1109" t="s">
         <v>127</v>
       </c>
+      <c r="B1109" t="s">
+        <v>117</v>
+      </c>
       <c r="C1109" t="s">
         <v>8</v>
       </c>
@@ -22916,6 +24167,9 @@
       <c r="A1110" t="s">
         <v>127</v>
       </c>
+      <c r="B1110" t="s">
+        <v>117</v>
+      </c>
       <c r="C1110" t="s">
         <v>8</v>
       </c>
@@ -22933,6 +24187,9 @@
       <c r="A1111" t="s">
         <v>127</v>
       </c>
+      <c r="B1111" t="s">
+        <v>117</v>
+      </c>
       <c r="C1111" t="s">
         <v>8</v>
       </c>
@@ -22950,6 +24207,9 @@
       <c r="A1112" t="s">
         <v>127</v>
       </c>
+      <c r="B1112" t="s">
+        <v>117</v>
+      </c>
       <c r="C1112" t="s">
         <v>8</v>
       </c>
@@ -22967,6 +24227,9 @@
       <c r="A1113" t="s">
         <v>127</v>
       </c>
+      <c r="B1113" t="s">
+        <v>117</v>
+      </c>
       <c r="C1113" t="s">
         <v>8</v>
       </c>
@@ -22984,6 +24247,9 @@
       <c r="A1114" t="s">
         <v>127</v>
       </c>
+      <c r="B1114" t="s">
+        <v>117</v>
+      </c>
       <c r="C1114" t="s">
         <v>8</v>
       </c>
@@ -23001,6 +24267,9 @@
       <c r="A1115" t="s">
         <v>127</v>
       </c>
+      <c r="B1115" t="s">
+        <v>117</v>
+      </c>
       <c r="C1115" t="s">
         <v>8</v>
       </c>
@@ -23018,6 +24287,9 @@
       <c r="A1116" t="s">
         <v>127</v>
       </c>
+      <c r="B1116" t="s">
+        <v>117</v>
+      </c>
       <c r="C1116" t="s">
         <v>8</v>
       </c>
@@ -23035,6 +24307,9 @@
       <c r="A1117" t="s">
         <v>127</v>
       </c>
+      <c r="B1117" t="s">
+        <v>117</v>
+      </c>
       <c r="C1117" t="s">
         <v>8</v>
       </c>
@@ -23052,6 +24327,9 @@
       <c r="A1118" t="s">
         <v>127</v>
       </c>
+      <c r="B1118" t="s">
+        <v>117</v>
+      </c>
       <c r="C1118" t="s">
         <v>8</v>
       </c>
@@ -23069,6 +24347,9 @@
       <c r="A1119" t="s">
         <v>127</v>
       </c>
+      <c r="B1119" t="s">
+        <v>117</v>
+      </c>
       <c r="C1119" t="s">
         <v>8</v>
       </c>
@@ -23086,6 +24367,9 @@
       <c r="A1120" t="s">
         <v>127</v>
       </c>
+      <c r="B1120" t="s">
+        <v>117</v>
+      </c>
       <c r="C1120" t="s">
         <v>8</v>
       </c>
@@ -23103,6 +24387,9 @@
       <c r="A1121" t="s">
         <v>127</v>
       </c>
+      <c r="B1121" t="s">
+        <v>117</v>
+      </c>
       <c r="C1121" t="s">
         <v>8</v>
       </c>
@@ -23120,6 +24407,9 @@
       <c r="A1122" t="s">
         <v>127</v>
       </c>
+      <c r="B1122" t="s">
+        <v>118</v>
+      </c>
       <c r="C1122" t="s">
         <v>8</v>
       </c>
@@ -23137,6 +24427,9 @@
       <c r="A1123" t="s">
         <v>127</v>
       </c>
+      <c r="B1123" t="s">
+        <v>118</v>
+      </c>
       <c r="C1123" t="s">
         <v>8</v>
       </c>
@@ -23154,6 +24447,9 @@
       <c r="A1124" t="s">
         <v>127</v>
       </c>
+      <c r="B1124" t="s">
+        <v>118</v>
+      </c>
       <c r="C1124" t="s">
         <v>8</v>
       </c>
@@ -23171,6 +24467,9 @@
       <c r="A1125" t="s">
         <v>127</v>
       </c>
+      <c r="B1125" t="s">
+        <v>118</v>
+      </c>
       <c r="C1125" t="s">
         <v>8</v>
       </c>
@@ -23188,6 +24487,9 @@
       <c r="A1126" t="s">
         <v>127</v>
       </c>
+      <c r="B1126" t="s">
+        <v>118</v>
+      </c>
       <c r="C1126" t="s">
         <v>8</v>
       </c>
@@ -23205,6 +24507,9 @@
       <c r="A1127" t="s">
         <v>127</v>
       </c>
+      <c r="B1127" t="s">
+        <v>118</v>
+      </c>
       <c r="C1127" t="s">
         <v>8</v>
       </c>
@@ -23222,6 +24527,9 @@
       <c r="A1128" t="s">
         <v>127</v>
       </c>
+      <c r="B1128" t="s">
+        <v>118</v>
+      </c>
       <c r="C1128" t="s">
         <v>8</v>
       </c>
@@ -23239,6 +24547,9 @@
       <c r="A1129" t="s">
         <v>127</v>
       </c>
+      <c r="B1129" t="s">
+        <v>118</v>
+      </c>
       <c r="C1129" t="s">
         <v>8</v>
       </c>
@@ -23256,6 +24567,9 @@
       <c r="A1130" t="s">
         <v>127</v>
       </c>
+      <c r="B1130" t="s">
+        <v>118</v>
+      </c>
       <c r="C1130" t="s">
         <v>8</v>
       </c>
@@ -23273,6 +24587,9 @@
       <c r="A1131" t="s">
         <v>127</v>
       </c>
+      <c r="B1131" t="s">
+        <v>118</v>
+      </c>
       <c r="C1131" t="s">
         <v>8</v>
       </c>
@@ -23290,6 +24607,9 @@
       <c r="A1132" t="s">
         <v>127</v>
       </c>
+      <c r="B1132" t="s">
+        <v>118</v>
+      </c>
       <c r="C1132" t="s">
         <v>8</v>
       </c>
@@ -23307,6 +24627,9 @@
       <c r="A1133" t="s">
         <v>127</v>
       </c>
+      <c r="B1133" t="s">
+        <v>118</v>
+      </c>
       <c r="C1133" t="s">
         <v>8</v>
       </c>
@@ -23324,6 +24647,9 @@
       <c r="A1134" t="s">
         <v>127</v>
       </c>
+      <c r="B1134" t="s">
+        <v>118</v>
+      </c>
       <c r="C1134" t="s">
         <v>8</v>
       </c>
@@ -23341,6 +24667,9 @@
       <c r="A1135" t="s">
         <v>127</v>
       </c>
+      <c r="B1135" t="s">
+        <v>95</v>
+      </c>
       <c r="C1135" t="s">
         <v>8</v>
       </c>
@@ -23358,6 +24687,9 @@
       <c r="A1136" t="s">
         <v>127</v>
       </c>
+      <c r="B1136" t="s">
+        <v>95</v>
+      </c>
       <c r="C1136" t="s">
         <v>8</v>
       </c>
@@ -23375,6 +24707,9 @@
       <c r="A1137" t="s">
         <v>127</v>
       </c>
+      <c r="B1137" t="s">
+        <v>95</v>
+      </c>
       <c r="C1137" t="s">
         <v>8</v>
       </c>
@@ -23392,6 +24727,9 @@
       <c r="A1138" t="s">
         <v>127</v>
       </c>
+      <c r="B1138" t="s">
+        <v>95</v>
+      </c>
       <c r="C1138" t="s">
         <v>8</v>
       </c>
@@ -23409,6 +24747,9 @@
       <c r="A1139" t="s">
         <v>127</v>
       </c>
+      <c r="B1139" t="s">
+        <v>95</v>
+      </c>
       <c r="C1139" t="s">
         <v>8</v>
       </c>
@@ -23426,6 +24767,9 @@
       <c r="A1140" t="s">
         <v>127</v>
       </c>
+      <c r="B1140" t="s">
+        <v>95</v>
+      </c>
       <c r="C1140" t="s">
         <v>8</v>
       </c>
@@ -23443,6 +24787,9 @@
       <c r="A1141" t="s">
         <v>127</v>
       </c>
+      <c r="B1141" t="s">
+        <v>95</v>
+      </c>
       <c r="C1141" t="s">
         <v>8</v>
       </c>
@@ -23460,6 +24807,9 @@
       <c r="A1142" t="s">
         <v>127</v>
       </c>
+      <c r="B1142" t="s">
+        <v>95</v>
+      </c>
       <c r="C1142" t="s">
         <v>8</v>
       </c>
@@ -23477,6 +24827,9 @@
       <c r="A1143" t="s">
         <v>127</v>
       </c>
+      <c r="B1143" t="s">
+        <v>95</v>
+      </c>
       <c r="C1143" t="s">
         <v>8</v>
       </c>
@@ -23494,6 +24847,9 @@
       <c r="A1144" t="s">
         <v>127</v>
       </c>
+      <c r="B1144" t="s">
+        <v>95</v>
+      </c>
       <c r="C1144" t="s">
         <v>8</v>
       </c>
@@ -23511,6 +24867,9 @@
       <c r="A1145" t="s">
         <v>127</v>
       </c>
+      <c r="B1145" t="s">
+        <v>95</v>
+      </c>
       <c r="C1145" t="s">
         <v>8</v>
       </c>
@@ -23528,6 +24887,9 @@
       <c r="A1146" t="s">
         <v>127</v>
       </c>
+      <c r="B1146" t="s">
+        <v>95</v>
+      </c>
       <c r="C1146" t="s">
         <v>8</v>
       </c>
@@ -23545,6 +24907,9 @@
       <c r="A1147" t="s">
         <v>127</v>
       </c>
+      <c r="B1147" t="s">
+        <v>95</v>
+      </c>
       <c r="C1147" t="s">
         <v>8</v>
       </c>
@@ -23558,7 +24923,2568 @@
         <v>8</v>
       </c>
     </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1148" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1149" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1149">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1150" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1151" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1151">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1152" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1153" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1154" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1155" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1155">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1156" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1157" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1158" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1159" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1160" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1161" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1161">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1162" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1162">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1163" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1164" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1165" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1166" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1167" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1168" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1169" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1170" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1171" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1172" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1173" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1174" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1175" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1175">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1176" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1176">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1177" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1177">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1178" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1179" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1180" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1181" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1181">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1182" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1183" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1184" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1185" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1186" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1187" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1187">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1188" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1188">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1189" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1189">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1190" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1190">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1191" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1191">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1192" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1193" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1194" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1194">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1195" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1195">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1196" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1197" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1198" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1199" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1200" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1200">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1201" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1201">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1202" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1202">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1203" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1204" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1204">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1205" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1206" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1207" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1207">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1208" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1209" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1210" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1210">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1211" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1212" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1213" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1213">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1214" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1214">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1215" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1215">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1216" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1216">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1217" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1218" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1219" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1220" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1220">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1221" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1222" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1222">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1223" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1224" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1225" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1226" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1226">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1227" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1227">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1228" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1228">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1229" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1229">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1230" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1230">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1231" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1232" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1233" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1233">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1234" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1234">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1235" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1236" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1236">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1237" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1238" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1238">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1239" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1239">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1240" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1240">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1241" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1241">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1242" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1242">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1243" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1244" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1245" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1246" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1246">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1247" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1247">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1248" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1248">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1249" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1249">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1250" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1250">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1251" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1251">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1252" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1252">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1253" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1253">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1254" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1254">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1255" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1256" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1257" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1257">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1258" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1258">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1259" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1259">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1260" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1260">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1261" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1262" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1262">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1263" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1263">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1264" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1264">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1265" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1265">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1266" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1266">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1267" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1267">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1268" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1269" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1270" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1270">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1271" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1271">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1272" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1272">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1273" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1273">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1274" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1275" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1275">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BilanConcours/Ecoles.xlsx
+++ b/BilanConcours/Ecoles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\BilanConcours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D020F39-7935-4ABD-BE0A-F379AEAADF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359DC39E-951A-4D3E-A558-892B4F115491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="290" windowWidth="19200" windowHeight="9790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ecoles" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6656" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6751" uniqueCount="152">
   <si>
     <t>Ecole</t>
   </si>
@@ -481,6 +481,15 @@
   <si>
     <t>Moyenne épreuves écrites</t>
   </si>
+  <si>
+    <t>Inscription</t>
+  </si>
+  <si>
+    <t>ecole</t>
+  </si>
+  <si>
+    <t>banque</t>
+  </si>
 </sst>
 </file>
 
@@ -806,20 +815,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85:C95"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="47.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -830,10 +840,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -843,8 +856,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -854,8 +870,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -865,8 +884,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -876,8 +898,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -887,8 +912,11 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -898,8 +926,11 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -909,8 +940,11 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -920,8 +954,11 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -931,8 +968,11 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -942,8 +982,11 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -953,8 +996,11 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -964,8 +1010,11 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1024,11 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -986,8 +1038,11 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -997,11 +1052,14 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1011,11 +1069,14 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1025,11 +1086,14 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1039,11 +1103,14 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1053,11 +1120,14 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1067,11 +1137,14 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1081,11 +1154,14 @@
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1095,11 +1171,14 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1109,11 +1188,14 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1123,11 +1205,14 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1137,11 +1222,14 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1151,11 +1239,14 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1165,11 +1256,14 @@
       <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1179,11 +1273,14 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1193,11 +1290,14 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1207,11 +1307,14 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1221,11 +1324,14 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1235,11 +1341,14 @@
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1249,11 +1358,14 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -1263,11 +1375,14 @@
       <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1277,11 +1392,14 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -1291,11 +1409,14 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -1305,11 +1426,14 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1319,11 +1443,14 @@
       <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1333,11 +1460,14 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -1347,11 +1477,14 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -1361,11 +1494,14 @@
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -1375,11 +1511,14 @@
       <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1389,11 +1528,14 @@
       <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -1403,11 +1545,14 @@
       <c r="C45" t="s">
         <v>8</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -1417,11 +1562,14 @@
       <c r="C46" t="s">
         <v>8</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -1431,11 +1579,14 @@
       <c r="C47" t="s">
         <v>8</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -1445,11 +1596,14 @@
       <c r="C48" t="s">
         <v>8</v>
       </c>
-      <c r="D48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -1459,11 +1613,14 @@
       <c r="C49" t="s">
         <v>8</v>
       </c>
-      <c r="D49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -1473,11 +1630,14 @@
       <c r="C50" t="s">
         <v>8</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -1487,11 +1647,14 @@
       <c r="C51" t="s">
         <v>8</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -1501,11 +1664,14 @@
       <c r="C52" t="s">
         <v>8</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>127</v>
       </c>
@@ -1515,8 +1681,11 @@
       <c r="C53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>127</v>
       </c>
@@ -1526,8 +1695,11 @@
       <c r="C54" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>127</v>
       </c>
@@ -1537,8 +1709,11 @@
       <c r="C55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -1548,8 +1723,11 @@
       <c r="C56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -1559,8 +1737,11 @@
       <c r="C57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -1570,8 +1751,11 @@
       <c r="C58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>127</v>
       </c>
@@ -1581,8 +1765,11 @@
       <c r="C59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -1592,8 +1779,11 @@
       <c r="C60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -1603,8 +1793,11 @@
       <c r="C61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -1614,8 +1807,11 @@
       <c r="C62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>127</v>
       </c>
@@ -1625,8 +1821,11 @@
       <c r="C63" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -1636,8 +1835,11 @@
       <c r="C64" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -1647,8 +1849,11 @@
       <c r="C65" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -1658,8 +1863,11 @@
       <c r="C66" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -1669,8 +1877,11 @@
       <c r="C67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -1680,8 +1891,11 @@
       <c r="C68" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -1691,8 +1905,11 @@
       <c r="C69" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>127</v>
       </c>
@@ -1702,8 +1919,11 @@
       <c r="C70" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -1713,8 +1933,11 @@
       <c r="C71" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -1724,8 +1947,11 @@
       <c r="C72" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -1735,8 +1961,11 @@
       <c r="C73" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -1746,8 +1975,11 @@
       <c r="C74" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>127</v>
       </c>
@@ -1757,8 +1989,11 @@
       <c r="C75" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>127</v>
       </c>
@@ -1768,8 +2003,11 @@
       <c r="C76" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -1779,8 +2017,11 @@
       <c r="C77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -1790,8 +2031,11 @@
       <c r="C78" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -1801,8 +2045,11 @@
       <c r="C79" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -1812,8 +2059,11 @@
       <c r="C80" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>127</v>
       </c>
@@ -1823,8 +2073,11 @@
       <c r="C81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D81" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>127</v>
       </c>
@@ -1834,8 +2087,11 @@
       <c r="C82" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>127</v>
       </c>
@@ -1845,8 +2101,11 @@
       <c r="C83" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -1856,8 +2115,11 @@
       <c r="C84" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -1867,8 +2129,11 @@
       <c r="C85" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -1878,8 +2143,11 @@
       <c r="C86" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>127</v>
       </c>
@@ -1889,8 +2157,11 @@
       <c r="C87" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -1900,8 +2171,11 @@
       <c r="C88" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>127</v>
       </c>
@@ -1911,8 +2185,11 @@
       <c r="C89" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D89" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>127</v>
       </c>
@@ -1922,8 +2199,11 @@
       <c r="C90" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D90" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>127</v>
       </c>
@@ -1933,8 +2213,11 @@
       <c r="C91" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>127</v>
       </c>
@@ -1944,8 +2227,11 @@
       <c r="C92" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D92" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>127</v>
       </c>
@@ -1955,8 +2241,11 @@
       <c r="C93" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -1966,8 +2255,11 @@
       <c r="C94" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D94" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>127</v>
       </c>
@@ -1976,6 +2268,9 @@
       </c>
       <c r="C95" t="s">
         <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -10123,7 +10418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>66</v>
       </c>
@@ -10143,7 +10438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>66</v>
       </c>
@@ -10163,7 +10458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>66</v>
       </c>
@@ -10183,7 +10478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>66</v>
       </c>
@@ -10203,7 +10498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>66</v>
       </c>
@@ -10223,7 +10518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>66</v>
       </c>
@@ -10243,7 +10538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>66</v>
       </c>
@@ -10263,7 +10558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>66</v>
       </c>
@@ -10283,7 +10578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>66</v>
       </c>
@@ -14503,7 +14798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>66</v>
       </c>
@@ -14523,7 +14818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>66</v>
       </c>
@@ -14543,7 +14838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>66</v>
       </c>
@@ -14563,7 +14858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>66</v>
       </c>

--- a/BilanConcours/Ecoles.xlsx
+++ b/BilanConcours/Ecoles.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\BilanConcours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359DC39E-951A-4D3E-A558-892B4F115491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DFDE02-193C-4B9B-9E02-A5BF774D7872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="290" windowWidth="19200" windowHeight="9790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ecoles" sheetId="1" r:id="rId1"/>
-    <sheet name="Coefficients" sheetId="2" r:id="rId2"/>
+    <sheet name="Banque" sheetId="3" r:id="rId1"/>
+    <sheet name="Ecoles" sheetId="1" r:id="rId2"/>
+    <sheet name="Coefficients" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6751" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6755" uniqueCount="153">
   <si>
     <t>Ecole</t>
   </si>
@@ -490,6 +491,9 @@
   <si>
     <t>banque</t>
   </si>
+  <si>
+    <t>CCMT</t>
+  </si>
 </sst>
 </file>
 
@@ -814,11 +818,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7983FA70-0B5D-4E5E-912D-4FE5672CBF28}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1231,7 +1270,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -1248,7 +1287,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -1265,7 +1304,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
         <v>69</v>
@@ -1282,7 +1321,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>70</v>
@@ -1299,7 +1338,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
@@ -1316,7 +1355,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
@@ -1333,7 +1372,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
@@ -1350,7 +1389,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
         <v>74</v>
@@ -1367,7 +1406,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
         <v>75</v>
@@ -1384,7 +1423,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
         <v>76</v>
@@ -1401,7 +1440,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -1418,7 +1457,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
         <v>78</v>
@@ -1435,7 +1474,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
         <v>79</v>
@@ -1452,7 +1491,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
@@ -1469,7 +1508,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -1486,7 +1525,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
         <v>82</v>
@@ -1503,7 +1542,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
@@ -1520,7 +1559,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
         <v>84</v>
@@ -1537,7 +1576,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
         <v>85</v>
@@ -1554,7 +1593,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
         <v>86</v>
@@ -1571,7 +1610,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
         <v>87</v>
@@ -1588,7 +1627,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
         <v>88</v>
@@ -1605,7 +1644,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
         <v>89</v>
@@ -1622,7 +1661,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
         <v>90</v>
@@ -1639,7 +1678,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
         <v>91</v>
@@ -1656,7 +1695,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
         <v>92</v>
@@ -2278,12 +2317,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528112A4-E218-487D-A5F5-2C549F5C1B3F}">
   <dimension ref="A1:F1275"/>
   <sheetViews>
-    <sheetView topLeftCell="A1260" workbookViewId="0">
-      <selection activeCell="B1275" sqref="B1275"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
